--- a/TestCase_Results.xlsx
+++ b/TestCase_Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1197">
   <si>
     <t>TCID</t>
   </si>
@@ -3145,16 +3145,16 @@
     <t>US</t>
   </si>
   <si>
-    <t>automation_1536904650766@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018720</t>
+    <t>automation_1537340151200@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030350</t>
   </si>
   <si>
     <t>$70.58</t>
   </si>
   <si>
-    <t>Sep-13-2018</t>
+    <t>Sep-18-2018</t>
   </si>
   <si>
     <t>Item1 : MindWorks
@@ -3176,7 +3176,7 @@
     <t>Visa  xxxxxxxxxxxx1111</t>
   </si>
   <si>
-    <t>USA FN USA LN</t>
+    <t>USAFN USALN</t>
   </si>
   <si>
     <t>DARLENE LAWRENCE</t>
@@ -3200,67 +3200,34 @@
     <t/>
   </si>
   <si>
-    <t>automation_1536904860838@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018730</t>
-  </si>
-  <si>
-    <t>automation_1536905056280@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018740</t>
-  </si>
-  <si>
-    <t>automation_1536905252639@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018750</t>
-  </si>
-  <si>
-    <t>automation_1536905449437@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018760</t>
-  </si>
-  <si>
-    <t>automation_1536905644927@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018770</t>
-  </si>
-  <si>
-    <t>automation_1536905838566@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018780</t>
-  </si>
-  <si>
-    <t>automation_1536906031515@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018810</t>
-  </si>
-  <si>
-    <t>automation_1536906225916@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018820</t>
-  </si>
-  <si>
-    <t>automation_1536906418373@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018830</t>
+    <t>automation_1537340623135@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030400</t>
+  </si>
+  <si>
+    <t>Sep-19-2018</t>
+  </si>
+  <si>
+    <t>automation_1537341088428@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030440</t>
+  </si>
+  <si>
+    <t>automation_1537342111572@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030530</t>
   </si>
   <si>
     <t>CA</t>
   </si>
   <si>
-    <t>automation_1536906610457@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000856</t>
+    <t>automation_1537342577983@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001622</t>
   </si>
   <si>
     <t>$34.99</t>
@@ -3273,7 +3240,7 @@
 GST/HST: 13%</t>
   </si>
   <si>
-    <t>Canada FN Canada LN</t>
+    <t>CanadaFN CanadaLN</t>
   </si>
   <si>
     <t>SANDRA A NYE SAUNDERS</t>
@@ -3297,64 +3264,37 @@
     <t>-</t>
   </si>
   <si>
-    <t>automation_1536906805660@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000858</t>
-  </si>
-  <si>
-    <t>automation_1536907003579@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000859</t>
-  </si>
-  <si>
-    <t>automation_1536907213428@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000860</t>
-  </si>
-  <si>
-    <t>automation_1536907409668@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000861</t>
-  </si>
-  <si>
-    <t>automation_1536907606320@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000863</t>
-  </si>
-  <si>
-    <t>automation_1536907802234@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000864</t>
-  </si>
-  <si>
-    <t>automation_1536907998486@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000865</t>
-  </si>
-  <si>
-    <t>automation_1536908469357@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000867</t>
-  </si>
-  <si>
-    <t>Sep-14-2018</t>
+    <t>automation_1537343307461@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001626</t>
+  </si>
+  <si>
+    <t>automation_1537343501291@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001627</t>
+  </si>
+  <si>
+    <t>automation_1537343963976@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001629</t>
+  </si>
+  <si>
+    <t>automation_1537344161281@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001630</t>
   </si>
   <si>
     <t>Member User</t>
   </si>
   <si>
-    <t>automation_1536908658497@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018890</t>
+    <t>automation_1537344623042@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030570</t>
   </si>
   <si>
     <t>$21.75</t>
@@ -3377,58 +3317,52 @@
     <t>$1.80</t>
   </si>
   <si>
-    <t>automation_1536908846334@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018900</t>
-  </si>
-  <si>
-    <t>automation_1536909039688@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018920</t>
-  </si>
-  <si>
-    <t>automation_1536909231302@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018940</t>
-  </si>
-  <si>
-    <t>automation_1536909418804@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018950</t>
-  </si>
-  <si>
-    <t>automation_1536909876735@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018970</t>
-  </si>
-  <si>
-    <t>automation_1536910072304@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800018980</t>
-  </si>
-  <si>
-    <t>automation_1536910262693@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022000</t>
-  </si>
-  <si>
-    <t>automation_1536910457005@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022020</t>
-  </si>
-  <si>
-    <t>automation_1536910650503@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000874</t>
+    <t>automation_1537344812337@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030590</t>
+  </si>
+  <si>
+    <t>automation_1537345288139@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030620</t>
+  </si>
+  <si>
+    <t>automation_1537345478054@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030630</t>
+  </si>
+  <si>
+    <t>automation_1537345955678@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030650</t>
+  </si>
+  <si>
+    <t>automation_1537346149619@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030660</t>
+  </si>
+  <si>
+    <t>automation_1537346338302@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030670</t>
+  </si>
+  <si>
+    <t>automation_1537346539086@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030690</t>
+  </si>
+  <si>
+    <t>automation_1537346732041@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001636</t>
   </si>
   <si>
     <t>$22.54</t>
@@ -3442,67 +3376,43 @@
 GST/HST: 13%</t>
   </si>
   <si>
-    <t>automation_1536910846472@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000876</t>
-  </si>
-  <si>
-    <t>automation_1536911038091@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000877</t>
-  </si>
-  <si>
-    <t>automation_1536911227698@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000878</t>
-  </si>
-  <si>
-    <t>automation_1536911420231@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000879</t>
-  </si>
-  <si>
-    <t>automation_1536911610841@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000880</t>
-  </si>
-  <si>
-    <t>automation_1536911805368@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000882</t>
-  </si>
-  <si>
-    <t>automation_1536911995713@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000884</t>
-  </si>
-  <si>
-    <t>automation_1536912186946@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000885</t>
-  </si>
-  <si>
-    <t>automation_1536912378110@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000886</t>
+    <t>automation_1537347462395@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001640</t>
+  </si>
+  <si>
+    <t>automation_1537347658150@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001641</t>
+  </si>
+  <si>
+    <t>automation_1537347850742@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001643</t>
+  </si>
+  <si>
+    <t>automation_1537348042489@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001644</t>
+  </si>
+  <si>
+    <t>automation_1537348234711@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001645</t>
   </si>
   <si>
     <t>Distributor User</t>
   </si>
   <si>
-    <t>automation_1536912577680@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022070</t>
+    <t>automation_1537348772334@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030810</t>
   </si>
   <si>
     <t>$54.45</t>
@@ -3528,154 +3438,124 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>automation_1536912585541@example.com.uat</t>
-  </si>
-  <si>
-    <t>900708202</t>
-  </si>
-  <si>
-    <t>900843381</t>
-  </si>
-  <si>
-    <t>automation_1536912808012@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022090</t>
-  </si>
-  <si>
-    <t>automation_1536912815810@example.com.uat</t>
-  </si>
-  <si>
-    <t>900733490</t>
-  </si>
-  <si>
-    <t>900816295</t>
-  </si>
-  <si>
-    <t>automation_1536913034213@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022100</t>
-  </si>
-  <si>
-    <t>automation_1536913042054@example.com.uat</t>
-  </si>
-  <si>
-    <t>900741249</t>
-  </si>
-  <si>
-    <t>900790139</t>
-  </si>
-  <si>
-    <t>automation_1536913263091@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022110</t>
-  </si>
-  <si>
-    <t>automation_1536913270854@example.com.uat</t>
-  </si>
-  <si>
-    <t>900848668</t>
-  </si>
-  <si>
-    <t>900760765</t>
-  </si>
-  <si>
-    <t>automation_1536913491633@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022130</t>
-  </si>
-  <si>
-    <t>automation_1536913499459@example.com.uat</t>
-  </si>
-  <si>
-    <t>900757346</t>
-  </si>
-  <si>
-    <t>900819455</t>
-  </si>
-  <si>
-    <t>automation_1536913721155@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022140</t>
-  </si>
-  <si>
-    <t>automation_1536913728945@example.com.uat</t>
-  </si>
-  <si>
-    <t>900853091</t>
-  </si>
-  <si>
-    <t>900766223</t>
-  </si>
-  <si>
-    <t>automation_1536913947736@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022150</t>
-  </si>
-  <si>
-    <t>automation_1536913955630@example.com.uat</t>
-  </si>
-  <si>
-    <t>900750307</t>
-  </si>
-  <si>
-    <t>900805770</t>
-  </si>
-  <si>
-    <t>automation_1536914178765@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022160</t>
-  </si>
-  <si>
-    <t>automation_1536914186845@example.com.uat</t>
-  </si>
-  <si>
-    <t>900866730</t>
-  </si>
-  <si>
-    <t>900794096</t>
-  </si>
-  <si>
-    <t>automation_1536914407085@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022170</t>
-  </si>
-  <si>
-    <t>automation_1536914414935@example.com.uat</t>
-  </si>
-  <si>
-    <t>900720265</t>
-  </si>
-  <si>
-    <t>900747521</t>
-  </si>
-  <si>
-    <t>automation_1536914634529@example.com.uat</t>
-  </si>
-  <si>
-    <t>6800022190</t>
-  </si>
-  <si>
-    <t>automation_1536914642444@example.com.uat</t>
-  </si>
-  <si>
-    <t>900730491</t>
-  </si>
-  <si>
-    <t>900768100</t>
-  </si>
-  <si>
-    <t>automation_1536914869737@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000894</t>
+    <t>automation_1537348780365@example.com.uat</t>
+  </si>
+  <si>
+    <t>900885328</t>
+  </si>
+  <si>
+    <t>900826332</t>
+  </si>
+  <si>
+    <t>automation_1537349007786@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030830</t>
+  </si>
+  <si>
+    <t>automation_1537349015997@example.com.uat</t>
+  </si>
+  <si>
+    <t>900877681</t>
+  </si>
+  <si>
+    <t>900880804</t>
+  </si>
+  <si>
+    <t>automation_1537349240163@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030850</t>
+  </si>
+  <si>
+    <t>automation_1537349248352@example.com.uat</t>
+  </si>
+  <si>
+    <t>900707498</t>
+  </si>
+  <si>
+    <t>900742580</t>
+  </si>
+  <si>
+    <t>automation_1537349470197@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030860</t>
+  </si>
+  <si>
+    <t>automation_1537349478542@example.com.uat</t>
+  </si>
+  <si>
+    <t>900858914</t>
+  </si>
+  <si>
+    <t>900842145</t>
+  </si>
+  <si>
+    <t>automation_1537349701000@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030890</t>
+  </si>
+  <si>
+    <t>automation_1537349708903@example.com.uat</t>
+  </si>
+  <si>
+    <t>900769188</t>
+  </si>
+  <si>
+    <t>900774990</t>
+  </si>
+  <si>
+    <t>automation_1537350576521@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030970</t>
+  </si>
+  <si>
+    <t>automation_1537350584709@example.com.uat</t>
+  </si>
+  <si>
+    <t>900797008</t>
+  </si>
+  <si>
+    <t>900798396</t>
+  </si>
+  <si>
+    <t>automation_1537350812098@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030980</t>
+  </si>
+  <si>
+    <t>automation_1537350820148@example.com.uat</t>
+  </si>
+  <si>
+    <t>900884941</t>
+  </si>
+  <si>
+    <t>900839894</t>
+  </si>
+  <si>
+    <t>automation_1537351047242@example.com.uat</t>
+  </si>
+  <si>
+    <t>6800030990</t>
+  </si>
+  <si>
+    <t>automation_1537351055299@example.com.uat</t>
+  </si>
+  <si>
+    <t>900842812</t>
+  </si>
+  <si>
+    <t>900822811</t>
+  </si>
+  <si>
+    <t>automation_1537351364205@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001655</t>
   </si>
   <si>
     <t>$56.44</t>
@@ -3693,88 +3573,79 @@
     <t>$6.49</t>
   </si>
   <si>
-    <t>automation_1536914875576@example.com.uat</t>
-  </si>
-  <si>
-    <t>automation_1536915112467@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000895</t>
-  </si>
-  <si>
-    <t>automation_1536915118236@example.com.uat</t>
-  </si>
-  <si>
-    <t>automation_1536915356785@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000896</t>
-  </si>
-  <si>
-    <t>automation_1536915362565@example.com.uat</t>
-  </si>
-  <si>
-    <t>automation_1536915595677@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000897</t>
-  </si>
-  <si>
-    <t>automation_1536915601402@example.com.uat</t>
-  </si>
-  <si>
-    <t>automation_1536915834803@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000898</t>
-  </si>
-  <si>
-    <t>automation_1536915840575@example.com.uat</t>
-  </si>
-  <si>
-    <t>automation_1536916072071@example.com.uat</t>
-  </si>
-  <si>
-    <t>15000899</t>
-  </si>
-  <si>
-    <t>automation_1536916077867@example.com.uat</t>
-  </si>
-  <si>
-    <t>automation_1536916319831@example.com.uat</t>
-  </si>
-  <si>
-    <t>15001100</t>
-  </si>
-  <si>
-    <t>automation_1536916325552@example.com.uat</t>
-  </si>
-  <si>
-    <t>automation_1536916558820@example.com.uat</t>
-  </si>
-  <si>
-    <t>15001101</t>
-  </si>
-  <si>
-    <t>automation_1536916564539@example.com.uat</t>
-  </si>
-  <si>
-    <t>automation_1536916804101@example.com.uat</t>
-  </si>
-  <si>
-    <t>15001102</t>
-  </si>
-  <si>
-    <t>automation_1536916810015@example.com.uat</t>
-  </si>
-  <si>
-    <t>automation_1536917047034@example.com.uat</t>
-  </si>
-  <si>
-    <t>15001103</t>
-  </si>
-  <si>
-    <t>automation_1536917052776@example.com.uat</t>
+    <t>automation_1537351370181@example.com.uat</t>
+  </si>
+  <si>
+    <t>automation_1537351614108@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001657</t>
+  </si>
+  <si>
+    <t>automation_1537351620123@example.com.uat</t>
+  </si>
+  <si>
+    <t>automation_1537351856099@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001659</t>
+  </si>
+  <si>
+    <t>automation_1537351862328@example.com.uat</t>
+  </si>
+  <si>
+    <t>automation_1537352097029@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001660</t>
+  </si>
+  <si>
+    <t>automation_1537352103190@example.com.uat</t>
+  </si>
+  <si>
+    <t>automation_1537352343785@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001661</t>
+  </si>
+  <si>
+    <t>automation_1537352349759@example.com.uat</t>
+  </si>
+  <si>
+    <t>automation_1537352587045@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001664</t>
+  </si>
+  <si>
+    <t>automation_1537352593137@example.com.uat</t>
+  </si>
+  <si>
+    <t>automation_1537352837591@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001665</t>
+  </si>
+  <si>
+    <t>automation_1537352843568@example.com.uat</t>
+  </si>
+  <si>
+    <t>automation_1537353080646@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001667</t>
+  </si>
+  <si>
+    <t>automation_1537353086640@example.com.uat</t>
+  </si>
+  <si>
+    <t>automation_1537353324992@example.com.uat</t>
+  </si>
+  <si>
+    <t>15001668</t>
+  </si>
+  <si>
+    <t>automation_1537353331004@example.com.uat</t>
   </si>
 </sst>
 </file>
@@ -21902,596 +21773,216 @@
       <c r="A411" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B411" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E411" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F411" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H411" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I411" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J411" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K411" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L411" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M411" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O411" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P411" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q411" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R411" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T411" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V411" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X411" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Y411" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Z411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA411" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AB411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD411" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AE411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK411" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AL411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM411" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2"/>
+      <c r="F411" s="2"/>
+      <c r="G411" s="2"/>
+      <c r="H411" s="2"/>
+      <c r="I411" s="2"/>
+      <c r="J411" s="2"/>
+      <c r="K411" s="2"/>
+      <c r="L411" s="2"/>
+      <c r="M411" s="2"/>
+      <c r="N411" s="2"/>
+      <c r="O411" s="2"/>
+      <c r="P411" s="2"/>
+      <c r="Q411" s="2"/>
+      <c r="R411" s="2"/>
+      <c r="S411" s="2"/>
+      <c r="T411" s="2"/>
+      <c r="U411" s="2"/>
+      <c r="V411" s="2"/>
+      <c r="W411" s="2"/>
+      <c r="X411" s="2"/>
+      <c r="Y411" s="2"/>
+      <c r="Z411" s="2"/>
+      <c r="AA411" s="2"/>
+      <c r="AB411" s="2"/>
+      <c r="AC411" s="2"/>
+      <c r="AD411" s="2"/>
+      <c r="AE411" s="2"/>
+      <c r="AF411" s="2"/>
+      <c r="AG411" s="2"/>
+      <c r="AH411" s="2"/>
+      <c r="AI411" s="2"/>
+      <c r="AJ411" s="2"/>
+      <c r="AK411" s="2"/>
+      <c r="AL411" s="2"/>
+      <c r="AM411" s="2"/>
     </row>
     <row r="412" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B412" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F412" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G412" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H412" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I412" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J412" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K412" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L412" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M412" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O412" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P412" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q412" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R412" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T412" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V412" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X412" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Y412" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Z412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA412" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AB412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD412" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AE412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK412" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AL412" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM412" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2"/>
+      <c r="F412" s="2"/>
+      <c r="G412" s="2"/>
+      <c r="H412" s="2"/>
+      <c r="I412" s="2"/>
+      <c r="J412" s="2"/>
+      <c r="K412" s="2"/>
+      <c r="L412" s="2"/>
+      <c r="M412" s="2"/>
+      <c r="N412" s="2"/>
+      <c r="O412" s="2"/>
+      <c r="P412" s="2"/>
+      <c r="Q412" s="2"/>
+      <c r="R412" s="2"/>
+      <c r="S412" s="2"/>
+      <c r="T412" s="2"/>
+      <c r="U412" s="2"/>
+      <c r="V412" s="2"/>
+      <c r="W412" s="2"/>
+      <c r="X412" s="2"/>
+      <c r="Y412" s="2"/>
+      <c r="Z412" s="2"/>
+      <c r="AA412" s="2"/>
+      <c r="AB412" s="2"/>
+      <c r="AC412" s="2"/>
+      <c r="AD412" s="2"/>
+      <c r="AE412" s="2"/>
+      <c r="AF412" s="2"/>
+      <c r="AG412" s="2"/>
+      <c r="AH412" s="2"/>
+      <c r="AI412" s="2"/>
+      <c r="AJ412" s="2"/>
+      <c r="AK412" s="2"/>
+      <c r="AL412" s="2"/>
+      <c r="AM412" s="2"/>
     </row>
     <row r="413" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B413" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E413" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F413" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G413" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H413" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I413" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J413" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K413" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L413" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M413" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O413" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P413" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q413" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R413" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T413" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V413" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X413" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Y413" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Z413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA413" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AB413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD413" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AE413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK413" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AL413" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM413" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+      <c r="F413" s="2"/>
+      <c r="G413" s="2"/>
+      <c r="H413" s="2"/>
+      <c r="I413" s="2"/>
+      <c r="J413" s="2"/>
+      <c r="K413" s="2"/>
+      <c r="L413" s="2"/>
+      <c r="M413" s="2"/>
+      <c r="N413" s="2"/>
+      <c r="O413" s="2"/>
+      <c r="P413" s="2"/>
+      <c r="Q413" s="2"/>
+      <c r="R413" s="2"/>
+      <c r="S413" s="2"/>
+      <c r="T413" s="2"/>
+      <c r="U413" s="2"/>
+      <c r="V413" s="2"/>
+      <c r="W413" s="2"/>
+      <c r="X413" s="2"/>
+      <c r="Y413" s="2"/>
+      <c r="Z413" s="2"/>
+      <c r="AA413" s="2"/>
+      <c r="AB413" s="2"/>
+      <c r="AC413" s="2"/>
+      <c r="AD413" s="2"/>
+      <c r="AE413" s="2"/>
+      <c r="AF413" s="2"/>
+      <c r="AG413" s="2"/>
+      <c r="AH413" s="2"/>
+      <c r="AI413" s="2"/>
+      <c r="AJ413" s="2"/>
+      <c r="AK413" s="2"/>
+      <c r="AL413" s="2"/>
+      <c r="AM413" s="2"/>
     </row>
     <row r="414" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B414" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E414" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G414" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H414" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I414" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J414" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K414" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L414" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M414" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O414" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P414" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q414" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R414" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T414" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V414" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X414" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Y414" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Z414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA414" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AB414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD414" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AE414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK414" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AL414" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM414" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2"/>
+      <c r="F414" s="2"/>
+      <c r="G414" s="2"/>
+      <c r="H414" s="2"/>
+      <c r="I414" s="2"/>
+      <c r="J414" s="2"/>
+      <c r="K414" s="2"/>
+      <c r="L414" s="2"/>
+      <c r="M414" s="2"/>
+      <c r="N414" s="2"/>
+      <c r="O414" s="2"/>
+      <c r="P414" s="2"/>
+      <c r="Q414" s="2"/>
+      <c r="R414" s="2"/>
+      <c r="S414" s="2"/>
+      <c r="T414" s="2"/>
+      <c r="U414" s="2"/>
+      <c r="V414" s="2"/>
+      <c r="W414" s="2"/>
+      <c r="X414" s="2"/>
+      <c r="Y414" s="2"/>
+      <c r="Z414" s="2"/>
+      <c r="AA414" s="2"/>
+      <c r="AB414" s="2"/>
+      <c r="AC414" s="2"/>
+      <c r="AD414" s="2"/>
+      <c r="AE414" s="2"/>
+      <c r="AF414" s="2"/>
+      <c r="AG414" s="2"/>
+      <c r="AH414" s="2"/>
+      <c r="AI414" s="2"/>
+      <c r="AJ414" s="2"/>
+      <c r="AK414" s="2"/>
+      <c r="AL414" s="2"/>
+      <c r="AM414" s="2"/>
     </row>
     <row r="415" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B415" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E415" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F415" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G415" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H415" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I415" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J415" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K415" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L415" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M415" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O415" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P415" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q415" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R415" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T415" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V415" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X415" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Y415" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Z415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA415" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AB415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD415" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AE415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK415" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AL415" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM415" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
+      <c r="F415" s="2"/>
+      <c r="G415" s="2"/>
+      <c r="H415" s="2"/>
+      <c r="I415" s="2"/>
+      <c r="J415" s="2"/>
+      <c r="K415" s="2"/>
+      <c r="L415" s="2"/>
+      <c r="M415" s="2"/>
+      <c r="N415" s="2"/>
+      <c r="O415" s="2"/>
+      <c r="P415" s="2"/>
+      <c r="Q415" s="2"/>
+      <c r="R415" s="2"/>
+      <c r="S415" s="2"/>
+      <c r="T415" s="2"/>
+      <c r="U415" s="2"/>
+      <c r="V415" s="2"/>
+      <c r="W415" s="2"/>
+      <c r="X415" s="2"/>
+      <c r="Y415" s="2"/>
+      <c r="Z415" s="2"/>
+      <c r="AA415" s="2"/>
+      <c r="AB415" s="2"/>
+      <c r="AC415" s="2"/>
+      <c r="AD415" s="2"/>
+      <c r="AE415" s="2"/>
+      <c r="AF415" s="2"/>
+      <c r="AG415" s="2"/>
+      <c r="AH415" s="2"/>
+      <c r="AI415" s="2"/>
+      <c r="AJ415" s="2"/>
+      <c r="AK415" s="2"/>
+      <c r="AL415" s="2"/>
+      <c r="AM415" s="2"/>
     </row>
     <row r="416" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
@@ -22504,10 +21995,10 @@
         <v>1040</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>1065</v>
+        <v>1041</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1066</v>
+        <v>1042</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>1043</v>
@@ -22616,120 +22107,44 @@
       <c r="A417" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B417" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E417" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F417" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G417" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H417" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I417" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J417" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K417" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L417" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M417" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O417" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P417" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q417" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R417" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T417" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V417" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X417" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Y417" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Z417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA417" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AB417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD417" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AE417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK417" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AL417" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM417" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="2"/>
+      <c r="G417" s="2"/>
+      <c r="H417" s="2"/>
+      <c r="I417" s="2"/>
+      <c r="J417" s="2"/>
+      <c r="K417" s="2"/>
+      <c r="L417" s="2"/>
+      <c r="M417" s="2"/>
+      <c r="N417" s="2"/>
+      <c r="O417" s="2"/>
+      <c r="P417" s="2"/>
+      <c r="Q417" s="2"/>
+      <c r="R417" s="2"/>
+      <c r="S417" s="2"/>
+      <c r="T417" s="2"/>
+      <c r="U417" s="2"/>
+      <c r="V417" s="2"/>
+      <c r="W417" s="2"/>
+      <c r="X417" s="2"/>
+      <c r="Y417" s="2"/>
+      <c r="Z417" s="2"/>
+      <c r="AA417" s="2"/>
+      <c r="AB417" s="2"/>
+      <c r="AC417" s="2"/>
+      <c r="AD417" s="2"/>
+      <c r="AE417" s="2"/>
+      <c r="AF417" s="2"/>
+      <c r="AG417" s="2"/>
+      <c r="AH417" s="2"/>
+      <c r="AI417" s="2"/>
+      <c r="AJ417" s="2"/>
+      <c r="AK417" s="2"/>
+      <c r="AL417" s="2"/>
+      <c r="AM417" s="2"/>
     </row>
     <row r="418" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
@@ -22742,16 +22157,16 @@
         <v>1040</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>1043</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="H418" s="2" t="s">
         <v>1045</v>
@@ -22854,120 +22269,44 @@
       <c r="A419" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B419" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E419" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F419" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G419" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H419" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I419" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J419" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K419" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L419" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M419" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O419" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P419" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q419" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R419" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T419" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V419" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X419" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Y419" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Z419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA419" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AB419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD419" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AE419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK419" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AL419" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM419" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="2"/>
+      <c r="G419" s="2"/>
+      <c r="H419" s="2"/>
+      <c r="I419" s="2"/>
+      <c r="J419" s="2"/>
+      <c r="K419" s="2"/>
+      <c r="L419" s="2"/>
+      <c r="M419" s="2"/>
+      <c r="N419" s="2"/>
+      <c r="O419" s="2"/>
+      <c r="P419" s="2"/>
+      <c r="Q419" s="2"/>
+      <c r="R419" s="2"/>
+      <c r="S419" s="2"/>
+      <c r="T419" s="2"/>
+      <c r="U419" s="2"/>
+      <c r="V419" s="2"/>
+      <c r="W419" s="2"/>
+      <c r="X419" s="2"/>
+      <c r="Y419" s="2"/>
+      <c r="Z419" s="2"/>
+      <c r="AA419" s="2"/>
+      <c r="AB419" s="2"/>
+      <c r="AC419" s="2"/>
+      <c r="AD419" s="2"/>
+      <c r="AE419" s="2"/>
+      <c r="AF419" s="2"/>
+      <c r="AG419" s="2"/>
+      <c r="AH419" s="2"/>
+      <c r="AI419" s="2"/>
+      <c r="AJ419" s="2"/>
+      <c r="AK419" s="2"/>
+      <c r="AL419" s="2"/>
+      <c r="AM419" s="2"/>
     </row>
     <row r="420" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
@@ -22980,16 +22319,16 @@
         <v>1040</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>1043</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="H420" s="2" t="s">
         <v>1045</v>
@@ -23092,358 +22431,130 @@
       <c r="A421" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B421" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E421" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F421" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G421" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H421" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I421" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J421" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K421" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L421" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M421" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O421" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P421" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q421" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R421" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T421" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="U421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V421" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Y421" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="Z421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA421" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AB421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE421" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AF421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI421" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AJ421" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AL421" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM421" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B421" s="2"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="2"/>
+      <c r="G421" s="2"/>
+      <c r="H421" s="2"/>
+      <c r="I421" s="2"/>
+      <c r="J421" s="2"/>
+      <c r="K421" s="2"/>
+      <c r="L421" s="2"/>
+      <c r="M421" s="2"/>
+      <c r="N421" s="2"/>
+      <c r="O421" s="2"/>
+      <c r="P421" s="2"/>
+      <c r="Q421" s="2"/>
+      <c r="R421" s="2"/>
+      <c r="S421" s="2"/>
+      <c r="T421" s="2"/>
+      <c r="U421" s="2"/>
+      <c r="V421" s="2"/>
+      <c r="W421" s="2"/>
+      <c r="X421" s="2"/>
+      <c r="Y421" s="2"/>
+      <c r="Z421" s="2"/>
+      <c r="AA421" s="2"/>
+      <c r="AB421" s="2"/>
+      <c r="AC421" s="2"/>
+      <c r="AD421" s="2"/>
+      <c r="AE421" s="2"/>
+      <c r="AF421" s="2"/>
+      <c r="AG421" s="2"/>
+      <c r="AH421" s="2"/>
+      <c r="AI421" s="2"/>
+      <c r="AJ421" s="2"/>
+      <c r="AK421" s="2"/>
+      <c r="AL421" s="2"/>
+      <c r="AM421" s="2"/>
     </row>
     <row r="422" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B422" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E422" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F422" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G422" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H422" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I422" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J422" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K422" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L422" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M422" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O422" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P422" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q422" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R422" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T422" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="U422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V422" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Y422" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="Z422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA422" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AB422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE422" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AF422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI422" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AJ422" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AL422" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM422" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B422" s="2"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="2"/>
+      <c r="E422" s="2"/>
+      <c r="F422" s="2"/>
+      <c r="G422" s="2"/>
+      <c r="H422" s="4"/>
+      <c r="I422" s="4"/>
+      <c r="J422" s="4"/>
+      <c r="K422" s="4"/>
+      <c r="L422" s="4"/>
+      <c r="M422" s="4"/>
+      <c r="N422" s="2"/>
+      <c r="O422" s="2"/>
+      <c r="P422" s="2"/>
+      <c r="Q422" s="2"/>
+      <c r="R422" s="2"/>
+      <c r="S422" s="2"/>
+      <c r="T422" s="2"/>
+      <c r="U422" s="2"/>
+      <c r="V422" s="2"/>
+      <c r="W422" s="2"/>
+      <c r="X422" s="2"/>
+      <c r="Y422" s="2"/>
+      <c r="Z422" s="2"/>
+      <c r="AA422" s="2"/>
+      <c r="AB422" s="2"/>
+      <c r="AC422" s="2"/>
+      <c r="AD422" s="2"/>
+      <c r="AE422" s="2"/>
+      <c r="AF422" s="2"/>
+      <c r="AG422" s="2"/>
+      <c r="AH422" s="2"/>
+      <c r="AI422" s="2"/>
+      <c r="AJ422" s="2"/>
+      <c r="AK422" s="2"/>
+      <c r="AL422" s="2"/>
+      <c r="AM422" s="2"/>
     </row>
     <row r="423" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B423" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E423" s="2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F423" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G423" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H423" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I423" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J423" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K423" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L423" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M423" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O423" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P423" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q423" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R423" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T423" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="U423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V423" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Y423" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="Z423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA423" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AB423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE423" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AF423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI423" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AJ423" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AL423" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM423" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="2"/>
+      <c r="G423" s="2"/>
+      <c r="H423" s="2"/>
+      <c r="I423" s="2"/>
+      <c r="J423" s="2"/>
+      <c r="K423" s="2"/>
+      <c r="L423" s="2"/>
+      <c r="M423" s="2"/>
+      <c r="N423" s="2"/>
+      <c r="O423" s="2"/>
+      <c r="P423" s="2"/>
+      <c r="Q423" s="2"/>
+      <c r="R423" s="2"/>
+      <c r="S423" s="2"/>
+      <c r="T423" s="2"/>
+      <c r="U423" s="2"/>
+      <c r="V423" s="2"/>
+      <c r="W423" s="2"/>
+      <c r="X423" s="2"/>
+      <c r="Y423" s="2"/>
+      <c r="Z423" s="2"/>
+      <c r="AA423" s="2"/>
+      <c r="AB423" s="2"/>
+      <c r="AC423" s="2"/>
+      <c r="AD423" s="2"/>
+      <c r="AE423" s="2"/>
+      <c r="AF423" s="2"/>
+      <c r="AG423" s="2"/>
+      <c r="AH423" s="2"/>
+      <c r="AI423" s="2"/>
+      <c r="AJ423" s="2"/>
+      <c r="AK423" s="2"/>
+      <c r="AL423" s="2"/>
+      <c r="AM423" s="2"/>
     </row>
     <row r="424" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
@@ -23453,22 +22564,22 @@
         <v>1039</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>1075</v>
+        <v>1040</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>1091</v>
+        <v>1062</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1092</v>
+        <v>1063</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>1078</v>
+        <v>1043</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
       <c r="I424" s="2" t="s">
         <v>1056</v>
@@ -23498,34 +22609,34 @@
         <v>1049</v>
       </c>
       <c r="R424" s="2" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="S424" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T424" s="2" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="U424" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V424" s="2" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="W424" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X424" s="2" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="Y424" s="2" t="s">
-        <v>1083</v>
+        <v>1053</v>
       </c>
       <c r="Z424" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA424" s="2" t="s">
-        <v>1083</v>
+        <v>1053</v>
       </c>
       <c r="AB424" s="2" t="s">
         <v>1046</v>
@@ -23534,10 +22645,10 @@
         <v>1046</v>
       </c>
       <c r="AD424" s="2" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="AE424" s="2" t="s">
-        <v>1084</v>
+        <v>1046</v>
       </c>
       <c r="AF424" s="2" t="s">
         <v>1046</v>
@@ -23549,13 +22660,13 @@
         <v>1046</v>
       </c>
       <c r="AI424" s="2" t="s">
-        <v>1085</v>
+        <v>1046</v>
       </c>
       <c r="AJ424" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AK424" s="2" t="s">
-        <v>1046</v>
+        <v>1055</v>
       </c>
       <c r="AL424" s="2" t="s">
         <v>1046</v>
@@ -23568,120 +22679,44 @@
       <c r="A425" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B425" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F425" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G425" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I425" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J425" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K425" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L425" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M425" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O425" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P425" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q425" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R425" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T425" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="U425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V425" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Y425" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="Z425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA425" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AB425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE425" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AF425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI425" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AJ425" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AL425" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM425" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B425" s="2"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="2"/>
+      <c r="G425" s="2"/>
+      <c r="H425" s="2"/>
+      <c r="I425" s="2"/>
+      <c r="J425" s="2"/>
+      <c r="K425" s="2"/>
+      <c r="L425" s="2"/>
+      <c r="M425" s="2"/>
+      <c r="N425" s="2"/>
+      <c r="O425" s="2"/>
+      <c r="P425" s="2"/>
+      <c r="Q425" s="2"/>
+      <c r="R425" s="2"/>
+      <c r="S425" s="2"/>
+      <c r="T425" s="2"/>
+      <c r="U425" s="2"/>
+      <c r="V425" s="2"/>
+      <c r="W425" s="2"/>
+      <c r="X425" s="2"/>
+      <c r="Y425" s="2"/>
+      <c r="Z425" s="2"/>
+      <c r="AA425" s="2"/>
+      <c r="AB425" s="2"/>
+      <c r="AC425" s="2"/>
+      <c r="AD425" s="2"/>
+      <c r="AE425" s="2"/>
+      <c r="AF425" s="2"/>
+      <c r="AG425" s="2"/>
+      <c r="AH425" s="2"/>
+      <c r="AI425" s="2"/>
+      <c r="AJ425" s="2"/>
+      <c r="AK425" s="2"/>
+      <c r="AL425" s="2"/>
+      <c r="AM425" s="2"/>
     </row>
     <row r="426" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
@@ -23691,22 +22726,22 @@
         <v>1039</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>1095</v>
+        <v>1065</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1096</v>
+        <v>1066</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="I426" s="2" t="s">
         <v>1056</v>
@@ -23736,19 +22771,19 @@
         <v>1049</v>
       </c>
       <c r="R426" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S426" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T426" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U426" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V426" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W426" s="2" t="s">
         <v>1046</v>
@@ -23757,13 +22792,13 @@
         <v>1046</v>
       </c>
       <c r="Y426" s="2" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="Z426" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA426" s="2" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="AB426" s="2" t="s">
         <v>1046</v>
@@ -23775,7 +22810,7 @@
         <v>1046</v>
       </c>
       <c r="AE426" s="2" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="AF426" s="2" t="s">
         <v>1046</v>
@@ -23787,10 +22822,10 @@
         <v>1046</v>
       </c>
       <c r="AI426" s="2" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="AJ426" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK426" s="2" t="s">
         <v>1046</v>
@@ -23806,282 +22841,206 @@
       <c r="A427" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B427" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E427" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F427" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H427" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I427" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J427" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K427" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L427" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M427" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O427" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P427" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q427" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R427" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T427" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="U427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V427" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Y427" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="Z427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA427" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AB427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE427" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AF427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI427" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AJ427" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AL427" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM427" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2"/>
+      <c r="F427" s="2"/>
+      <c r="G427" s="2"/>
+      <c r="H427" s="2"/>
+      <c r="I427" s="2"/>
+      <c r="J427" s="2"/>
+      <c r="K427" s="2"/>
+      <c r="L427" s="2"/>
+      <c r="M427" s="2"/>
+      <c r="N427" s="2"/>
+      <c r="O427" s="2"/>
+      <c r="P427" s="2"/>
+      <c r="Q427" s="2"/>
+      <c r="R427" s="2"/>
+      <c r="S427" s="2"/>
+      <c r="T427" s="2"/>
+      <c r="U427" s="2"/>
+      <c r="V427" s="2"/>
+      <c r="W427" s="2"/>
+      <c r="X427" s="2"/>
+      <c r="Y427" s="2"/>
+      <c r="Z427" s="2"/>
+      <c r="AA427" s="2"/>
+      <c r="AB427" s="2"/>
+      <c r="AC427" s="2"/>
+      <c r="AD427" s="2"/>
+      <c r="AE427" s="2"/>
+      <c r="AF427" s="2"/>
+      <c r="AG427" s="2"/>
+      <c r="AH427" s="2"/>
+      <c r="AI427" s="2"/>
+      <c r="AJ427" s="2"/>
+      <c r="AK427" s="2"/>
+      <c r="AL427" s="2"/>
+      <c r="AM427" s="2"/>
     </row>
     <row r="428" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B428" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G428" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H428" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I428" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J428" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K428" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L428" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M428" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O428" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P428" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q428" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R428" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T428" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="U428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V428" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Y428" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="Z428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA428" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AB428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE428" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AF428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI428" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AJ428" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AL428" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM428" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B428" s="2"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
+      <c r="E428" s="2"/>
+      <c r="F428" s="2"/>
+      <c r="G428" s="2"/>
+      <c r="H428" s="2"/>
+      <c r="I428" s="2"/>
+      <c r="J428" s="2"/>
+      <c r="K428" s="2"/>
+      <c r="L428" s="2"/>
+      <c r="M428" s="2"/>
+      <c r="N428" s="2"/>
+      <c r="O428" s="2"/>
+      <c r="P428" s="2"/>
+      <c r="Q428" s="2"/>
+      <c r="R428" s="2"/>
+      <c r="S428" s="2"/>
+      <c r="T428" s="2"/>
+      <c r="U428" s="2"/>
+      <c r="V428" s="2"/>
+      <c r="W428" s="2"/>
+      <c r="X428" s="2"/>
+      <c r="Y428" s="2"/>
+      <c r="Z428" s="2"/>
+      <c r="AA428" s="2"/>
+      <c r="AB428" s="2"/>
+      <c r="AC428" s="2"/>
+      <c r="AD428" s="2"/>
+      <c r="AE428" s="2"/>
+      <c r="AF428" s="2"/>
+      <c r="AG428" s="2"/>
+      <c r="AH428" s="2"/>
+      <c r="AI428" s="2"/>
+      <c r="AJ428" s="2"/>
+      <c r="AK428" s="2"/>
+      <c r="AL428" s="2"/>
+      <c r="AM428" s="2"/>
     </row>
     <row r="429" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-      <c r="H429" s="2"/>
-      <c r="I429" s="2"/>
-      <c r="J429" s="2"/>
-      <c r="K429" s="2"/>
-      <c r="L429" s="2"/>
-      <c r="M429" s="2"/>
-      <c r="N429" s="2"/>
-      <c r="O429" s="2"/>
-      <c r="P429" s="2"/>
-      <c r="Q429" s="2"/>
-      <c r="R429" s="2"/>
-      <c r="S429" s="2"/>
-      <c r="T429" s="2"/>
-      <c r="U429" s="2"/>
-      <c r="V429" s="2"/>
-      <c r="W429" s="2"/>
-      <c r="X429" s="2"/>
-      <c r="Y429" s="2"/>
-      <c r="Z429" s="2"/>
-      <c r="AA429" s="2"/>
-      <c r="AB429" s="2"/>
-      <c r="AC429" s="2"/>
-      <c r="AD429" s="2"/>
-      <c r="AE429" s="2"/>
-      <c r="AF429" s="2"/>
-      <c r="AG429" s="2"/>
-      <c r="AH429" s="2"/>
-      <c r="AI429" s="2"/>
-      <c r="AJ429" s="2"/>
-      <c r="AK429" s="2"/>
-      <c r="AL429" s="2"/>
-      <c r="AM429" s="2"/>
+      <c r="B429" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G429" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I429" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J429" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K429" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L429" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M429" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O429" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P429" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q429" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R429" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T429" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="V429" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="X429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Y429" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Z429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AA429" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AB429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AC429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AD429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AE429" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AF429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AG429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AH429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AI429" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AJ429" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AK429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AL429" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AM429" s="2" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="430" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
@@ -24091,22 +23050,22 @@
         <v>1039</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>1101</v>
+        <v>1078</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1102</v>
+        <v>1079</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="I430" s="2" t="s">
         <v>1056</v>
@@ -24136,19 +23095,19 @@
         <v>1049</v>
       </c>
       <c r="R430" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S430" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T430" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U430" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V430" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W430" s="2" t="s">
         <v>1046</v>
@@ -24157,13 +23116,13 @@
         <v>1046</v>
       </c>
       <c r="Y430" s="2" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="Z430" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA430" s="2" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="AB430" s="2" t="s">
         <v>1046</v>
@@ -24175,7 +23134,7 @@
         <v>1046</v>
       </c>
       <c r="AE430" s="2" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="AF430" s="2" t="s">
         <v>1046</v>
@@ -24187,10 +23146,10 @@
         <v>1046</v>
       </c>
       <c r="AI430" s="2" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="AJ430" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK430" s="2" t="s">
         <v>1046</v>
@@ -24206,145 +23165,69 @@
       <c r="A431" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E431" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F431" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G431" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H431" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I431" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J431" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K431" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L431" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M431" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O431" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P431" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q431" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R431" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T431" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V431" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X431" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Y431" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Z431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA431" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AB431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD431" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AE431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK431" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AL431" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM431" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+      <c r="E431" s="2"/>
+      <c r="F431" s="2"/>
+      <c r="G431" s="2"/>
+      <c r="H431" s="4"/>
+      <c r="I431" s="4"/>
+      <c r="J431" s="4"/>
+      <c r="K431" s="4"/>
+      <c r="L431" s="4"/>
+      <c r="M431" s="4"/>
+      <c r="N431" s="2"/>
+      <c r="O431" s="2"/>
+      <c r="P431" s="2"/>
+      <c r="Q431" s="2"/>
+      <c r="R431" s="2"/>
+      <c r="S431" s="2"/>
+      <c r="T431" s="2"/>
+      <c r="U431" s="2"/>
+      <c r="V431" s="2"/>
+      <c r="W431" s="2"/>
+      <c r="X431" s="2"/>
+      <c r="Y431" s="2"/>
+      <c r="Z431" s="2"/>
+      <c r="AA431" s="2"/>
+      <c r="AB431" s="2"/>
+      <c r="AC431" s="2"/>
+      <c r="AD431" s="2"/>
+      <c r="AE431" s="2"/>
+      <c r="AF431" s="2"/>
+      <c r="AG431" s="2"/>
+      <c r="AH431" s="2"/>
+      <c r="AI431" s="2"/>
+      <c r="AJ431" s="2"/>
+      <c r="AK431" s="2"/>
+      <c r="AL431" s="2"/>
+      <c r="AM431" s="2"/>
     </row>
     <row r="432" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>1104</v>
+        <v>1039</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>1040</v>
+        <v>1064</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>1112</v>
+        <v>1080</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1113</v>
+        <v>1081</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>1108</v>
+        <v>1068</v>
       </c>
       <c r="I432" s="2" t="s">
         <v>1056</v>
@@ -24368,40 +23251,40 @@
         <v>1047</v>
       </c>
       <c r="P432" s="2" t="s">
-        <v>1109</v>
+        <v>1048</v>
       </c>
       <c r="Q432" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R432" s="2" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
       <c r="S432" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T432" s="2" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="U432" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V432" s="2" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="W432" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X432" s="2" t="s">
-        <v>1110</v>
+        <v>1046</v>
       </c>
       <c r="Y432" s="2" t="s">
-        <v>1110</v>
+        <v>1072</v>
       </c>
       <c r="Z432" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA432" s="2" t="s">
-        <v>1110</v>
+        <v>1072</v>
       </c>
       <c r="AB432" s="2" t="s">
         <v>1046</v>
@@ -24410,10 +23293,10 @@
         <v>1046</v>
       </c>
       <c r="AD432" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AE432" s="2" t="s">
-        <v>1046</v>
+        <v>1073</v>
       </c>
       <c r="AF432" s="2" t="s">
         <v>1046</v>
@@ -24425,13 +23308,13 @@
         <v>1046</v>
       </c>
       <c r="AI432" s="2" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="AJ432" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AK432" s="2" t="s">
-        <v>1111</v>
+        <v>1046</v>
       </c>
       <c r="AL432" s="2" t="s">
         <v>1046</v>
@@ -24445,25 +23328,25 @@
         <v>438</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>1104</v>
+        <v>1039</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>1040</v>
+        <v>1064</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>1114</v>
+        <v>1082</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1115</v>
+        <v>1083</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>1107</v>
+        <v>1067</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>1108</v>
+        <v>1068</v>
       </c>
       <c r="I433" s="2" t="s">
         <v>1056</v>
@@ -24487,40 +23370,40 @@
         <v>1047</v>
       </c>
       <c r="P433" s="2" t="s">
-        <v>1109</v>
+        <v>1048</v>
       </c>
       <c r="Q433" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R433" s="2" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
       <c r="S433" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T433" s="2" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="U433" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V433" s="2" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="W433" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X433" s="2" t="s">
-        <v>1110</v>
+        <v>1046</v>
       </c>
       <c r="Y433" s="2" t="s">
-        <v>1110</v>
+        <v>1072</v>
       </c>
       <c r="Z433" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA433" s="2" t="s">
-        <v>1110</v>
+        <v>1072</v>
       </c>
       <c r="AB433" s="2" t="s">
         <v>1046</v>
@@ -24529,10 +23412,10 @@
         <v>1046</v>
       </c>
       <c r="AD433" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AE433" s="2" t="s">
-        <v>1046</v>
+        <v>1073</v>
       </c>
       <c r="AF433" s="2" t="s">
         <v>1046</v>
@@ -24544,13 +23427,13 @@
         <v>1046</v>
       </c>
       <c r="AI433" s="2" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="AJ433" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AK433" s="2" t="s">
-        <v>1111</v>
+        <v>1046</v>
       </c>
       <c r="AL433" s="2" t="s">
         <v>1046</v>
@@ -24563,145 +23446,69 @@
       <c r="A434" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B434" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E434" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F434" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G434" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H434" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I434" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J434" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K434" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L434" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M434" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O434" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P434" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q434" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R434" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T434" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V434" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X434" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Y434" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Z434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA434" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AB434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD434" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AE434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK434" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AL434" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM434" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+      <c r="E434" s="2"/>
+      <c r="F434" s="2"/>
+      <c r="G434" s="2"/>
+      <c r="H434" s="2"/>
+      <c r="I434" s="2"/>
+      <c r="J434" s="2"/>
+      <c r="K434" s="2"/>
+      <c r="L434" s="2"/>
+      <c r="M434" s="2"/>
+      <c r="N434" s="2"/>
+      <c r="O434" s="2"/>
+      <c r="P434" s="2"/>
+      <c r="Q434" s="2"/>
+      <c r="R434" s="2"/>
+      <c r="S434" s="2"/>
+      <c r="T434" s="2"/>
+      <c r="U434" s="2"/>
+      <c r="V434" s="2"/>
+      <c r="W434" s="2"/>
+      <c r="X434" s="2"/>
+      <c r="Y434" s="2"/>
+      <c r="Z434" s="2"/>
+      <c r="AA434" s="2"/>
+      <c r="AB434" s="2"/>
+      <c r="AC434" s="2"/>
+      <c r="AD434" s="2"/>
+      <c r="AE434" s="2"/>
+      <c r="AF434" s="2"/>
+      <c r="AG434" s="2"/>
+      <c r="AH434" s="2"/>
+      <c r="AI434" s="2"/>
+      <c r="AJ434" s="2"/>
+      <c r="AK434" s="2"/>
+      <c r="AL434" s="2"/>
+      <c r="AM434" s="2"/>
     </row>
     <row r="435" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>1118</v>
+        <v>1085</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1119</v>
+        <v>1086</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>1108</v>
+        <v>1088</v>
       </c>
       <c r="I435" s="2" t="s">
         <v>1056</v>
@@ -24725,7 +23532,7 @@
         <v>1047</v>
       </c>
       <c r="P435" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q435" s="2" t="s">
         <v>1049</v>
@@ -24749,16 +23556,16 @@
         <v>1046</v>
       </c>
       <c r="X435" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Y435" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z435" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA435" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB435" s="2" t="s">
         <v>1046</v>
@@ -24767,7 +23574,7 @@
         <v>1046</v>
       </c>
       <c r="AD435" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AE435" s="2" t="s">
         <v>1046</v>
@@ -24788,7 +23595,7 @@
         <v>1046</v>
       </c>
       <c r="AK435" s="2" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="AL435" s="2" t="s">
         <v>1046</v>
@@ -24801,188 +23608,188 @@
       <c r="A436" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
-      <c r="I436" s="2"/>
-      <c r="J436" s="2"/>
-      <c r="K436" s="2"/>
-      <c r="L436" s="2"/>
-      <c r="M436" s="2"/>
-      <c r="N436" s="2"/>
-      <c r="O436" s="2"/>
-      <c r="P436" s="2"/>
-      <c r="Q436" s="2"/>
-      <c r="R436" s="2"/>
-      <c r="S436" s="2"/>
-      <c r="T436" s="2"/>
-      <c r="U436" s="2"/>
-      <c r="V436" s="2"/>
-      <c r="W436" s="2"/>
-      <c r="X436" s="2"/>
-      <c r="Y436" s="2"/>
-      <c r="Z436" s="2"/>
-      <c r="AA436" s="2"/>
-      <c r="AB436" s="2"/>
-      <c r="AC436" s="2"/>
-      <c r="AD436" s="2"/>
-      <c r="AE436" s="2"/>
-      <c r="AF436" s="2"/>
-      <c r="AG436" s="2"/>
-      <c r="AH436" s="2"/>
-      <c r="AI436" s="2"/>
-      <c r="AJ436" s="2"/>
-      <c r="AK436" s="2"/>
-      <c r="AL436" s="2"/>
-      <c r="AM436" s="2"/>
+      <c r="B436" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I436" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J436" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K436" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L436" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M436" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O436" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P436" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q436" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R436" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T436" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="U436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="V436" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="W436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="X436" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Y436" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Z436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AA436" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AB436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AC436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AD436" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AE436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AF436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AG436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AH436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AI436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AJ436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AK436" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AL436" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AM436" s="2" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="437" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B437" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E437" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F437" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G437" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H437" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I437" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J437" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K437" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L437" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M437" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O437" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P437" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q437" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R437" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T437" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V437" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X437" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Y437" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Z437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA437" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AB437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD437" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AE437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK437" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AL437" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM437" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B437" s="2"/>
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
+      <c r="E437" s="2"/>
+      <c r="F437" s="2"/>
+      <c r="G437" s="2"/>
+      <c r="H437" s="2"/>
+      <c r="I437" s="2"/>
+      <c r="J437" s="2"/>
+      <c r="K437" s="2"/>
+      <c r="L437" s="2"/>
+      <c r="M437" s="2"/>
+      <c r="N437" s="2"/>
+      <c r="O437" s="2"/>
+      <c r="P437" s="2"/>
+      <c r="Q437" s="2"/>
+      <c r="R437" s="2"/>
+      <c r="S437" s="2"/>
+      <c r="T437" s="2"/>
+      <c r="U437" s="2"/>
+      <c r="V437" s="2"/>
+      <c r="W437" s="2"/>
+      <c r="X437" s="2"/>
+      <c r="Y437" s="2"/>
+      <c r="Z437" s="2"/>
+      <c r="AA437" s="2"/>
+      <c r="AB437" s="2"/>
+      <c r="AC437" s="2"/>
+      <c r="AD437" s="2"/>
+      <c r="AE437" s="2"/>
+      <c r="AF437" s="2"/>
+      <c r="AG437" s="2"/>
+      <c r="AH437" s="2"/>
+      <c r="AI437" s="2"/>
+      <c r="AJ437" s="2"/>
+      <c r="AK437" s="2"/>
+      <c r="AL437" s="2"/>
+      <c r="AM437" s="2"/>
     </row>
     <row r="438" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>1122</v>
+        <v>1094</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1123</v>
+        <v>1095</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>1108</v>
+        <v>1088</v>
       </c>
       <c r="I438" s="2" t="s">
         <v>1056</v>
@@ -25006,7 +23813,7 @@
         <v>1047</v>
       </c>
       <c r="P438" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q438" s="2" t="s">
         <v>1049</v>
@@ -25030,16 +23837,16 @@
         <v>1046</v>
       </c>
       <c r="X438" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Y438" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z438" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA438" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB438" s="2" t="s">
         <v>1046</v>
@@ -25048,7 +23855,7 @@
         <v>1046</v>
       </c>
       <c r="AD438" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AE438" s="2" t="s">
         <v>1046</v>
@@ -25069,7 +23876,7 @@
         <v>1046</v>
       </c>
       <c r="AK438" s="2" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="AL438" s="2" t="s">
         <v>1046</v>
@@ -25083,25 +23890,25 @@
         <v>444</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>1124</v>
+        <v>1096</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1125</v>
+        <v>1097</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>1108</v>
+        <v>1088</v>
       </c>
       <c r="I439" s="2" t="s">
         <v>1056</v>
@@ -25125,7 +23932,7 @@
         <v>1047</v>
       </c>
       <c r="P439" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q439" s="2" t="s">
         <v>1049</v>
@@ -25149,16 +23956,16 @@
         <v>1046</v>
       </c>
       <c r="X439" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Y439" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z439" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA439" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB439" s="2" t="s">
         <v>1046</v>
@@ -25167,7 +23974,7 @@
         <v>1046</v>
       </c>
       <c r="AD439" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AE439" s="2" t="s">
         <v>1046</v>
@@ -25188,7 +23995,7 @@
         <v>1046</v>
       </c>
       <c r="AK439" s="2" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="AL439" s="2" t="s">
         <v>1046</v>
@@ -25201,145 +24008,69 @@
       <c r="A440" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B440" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E440" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F440" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G440" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H440" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I440" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J440" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K440" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L440" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M440" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O440" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P440" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q440" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R440" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T440" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V440" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X440" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Y440" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Z440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA440" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AB440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD440" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AE440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK440" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AL440" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM440" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" s="2"/>
+      <c r="F440" s="2"/>
+      <c r="G440" s="2"/>
+      <c r="H440" s="2"/>
+      <c r="I440" s="2"/>
+      <c r="J440" s="2"/>
+      <c r="K440" s="2"/>
+      <c r="L440" s="2"/>
+      <c r="M440" s="2"/>
+      <c r="N440" s="2"/>
+      <c r="O440" s="2"/>
+      <c r="P440" s="2"/>
+      <c r="Q440" s="2"/>
+      <c r="R440" s="2"/>
+      <c r="S440" s="2"/>
+      <c r="T440" s="2"/>
+      <c r="U440" s="2"/>
+      <c r="V440" s="2"/>
+      <c r="W440" s="2"/>
+      <c r="X440" s="2"/>
+      <c r="Y440" s="2"/>
+      <c r="Z440" s="2"/>
+      <c r="AA440" s="2"/>
+      <c r="AB440" s="2"/>
+      <c r="AC440" s="2"/>
+      <c r="AD440" s="2"/>
+      <c r="AE440" s="2"/>
+      <c r="AF440" s="2"/>
+      <c r="AG440" s="2"/>
+      <c r="AH440" s="2"/>
+      <c r="AI440" s="2"/>
+      <c r="AJ440" s="2"/>
+      <c r="AK440" s="2"/>
+      <c r="AL440" s="2"/>
+      <c r="AM440" s="2"/>
     </row>
     <row r="441" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1075</v>
+        <v>1040</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>1128</v>
+        <v>1098</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1129</v>
+        <v>1099</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>1130</v>
+        <v>1087</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>1131</v>
+        <v>1088</v>
       </c>
       <c r="I441" s="2" t="s">
         <v>1056</v>
@@ -25363,40 +24094,40 @@
         <v>1047</v>
       </c>
       <c r="P441" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q441" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R441" s="2" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="S441" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T441" s="2" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="U441" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V441" s="2" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="W441" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X441" s="2" t="s">
-        <v>1046</v>
+        <v>1090</v>
       </c>
       <c r="Y441" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z441" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA441" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB441" s="2" t="s">
         <v>1046</v>
@@ -25405,10 +24136,10 @@
         <v>1046</v>
       </c>
       <c r="AD441" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AE441" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AF441" s="2" t="s">
         <v>1046</v>
@@ -25420,13 +24151,13 @@
         <v>1046</v>
       </c>
       <c r="AI441" s="2" t="s">
-        <v>1085</v>
+        <v>1046</v>
       </c>
       <c r="AJ441" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AK441" s="2" t="s">
-        <v>1046</v>
+        <v>1091</v>
       </c>
       <c r="AL441" s="2" t="s">
         <v>1046</v>
@@ -25440,25 +24171,25 @@
         <v>447</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1075</v>
+        <v>1040</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>1130</v>
+        <v>1087</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H442" s="2" t="s">
-        <v>1131</v>
+        <v>1088</v>
       </c>
       <c r="I442" s="2" t="s">
         <v>1056</v>
@@ -25482,40 +24213,40 @@
         <v>1047</v>
       </c>
       <c r="P442" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q442" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R442" s="2" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="S442" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T442" s="2" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="U442" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V442" s="2" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="W442" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X442" s="2" t="s">
-        <v>1046</v>
+        <v>1090</v>
       </c>
       <c r="Y442" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z442" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA442" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB442" s="2" t="s">
         <v>1046</v>
@@ -25524,10 +24255,10 @@
         <v>1046</v>
       </c>
       <c r="AD442" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AE442" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AF442" s="2" t="s">
         <v>1046</v>
@@ -25539,13 +24270,13 @@
         <v>1046</v>
       </c>
       <c r="AI442" s="2" t="s">
-        <v>1085</v>
+        <v>1046</v>
       </c>
       <c r="AJ442" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AK442" s="2" t="s">
-        <v>1046</v>
+        <v>1091</v>
       </c>
       <c r="AL442" s="2" t="s">
         <v>1046</v>
@@ -25559,25 +24290,25 @@
         <v>448</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1075</v>
+        <v>1040</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>1134</v>
+        <v>1102</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1135</v>
+        <v>1103</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>1130</v>
+        <v>1087</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>1131</v>
+        <v>1088</v>
       </c>
       <c r="I443" s="2" t="s">
         <v>1056</v>
@@ -25601,40 +24332,40 @@
         <v>1047</v>
       </c>
       <c r="P443" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q443" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R443" s="2" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="S443" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T443" s="2" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="U443" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V443" s="2" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="W443" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X443" s="2" t="s">
-        <v>1046</v>
+        <v>1090</v>
       </c>
       <c r="Y443" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z443" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA443" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB443" s="2" t="s">
         <v>1046</v>
@@ -25643,10 +24374,10 @@
         <v>1046</v>
       </c>
       <c r="AD443" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AE443" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AF443" s="2" t="s">
         <v>1046</v>
@@ -25658,13 +24389,13 @@
         <v>1046</v>
       </c>
       <c r="AI443" s="2" t="s">
-        <v>1085</v>
+        <v>1046</v>
       </c>
       <c r="AJ443" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AK443" s="2" t="s">
-        <v>1046</v>
+        <v>1091</v>
       </c>
       <c r="AL443" s="2" t="s">
         <v>1046</v>
@@ -25678,25 +24409,25 @@
         <v>449</v>
       </c>
       <c r="B444" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D444" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="C444" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>1136</v>
-      </c>
       <c r="E444" s="2" t="s">
-        <v>1137</v>
+        <v>1105</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>1130</v>
+        <v>1087</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H444" s="2" t="s">
-        <v>1131</v>
+        <v>1088</v>
       </c>
       <c r="I444" s="2" t="s">
         <v>1056</v>
@@ -25720,40 +24451,40 @@
         <v>1047</v>
       </c>
       <c r="P444" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q444" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R444" s="2" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="S444" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T444" s="2" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="U444" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V444" s="2" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="W444" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X444" s="2" t="s">
-        <v>1046</v>
+        <v>1090</v>
       </c>
       <c r="Y444" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z444" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA444" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB444" s="2" t="s">
         <v>1046</v>
@@ -25762,10 +24493,10 @@
         <v>1046</v>
       </c>
       <c r="AD444" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AE444" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AF444" s="2" t="s">
         <v>1046</v>
@@ -25777,13 +24508,13 @@
         <v>1046</v>
       </c>
       <c r="AI444" s="2" t="s">
-        <v>1085</v>
+        <v>1046</v>
       </c>
       <c r="AJ444" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AK444" s="2" t="s">
-        <v>1046</v>
+        <v>1091</v>
       </c>
       <c r="AL444" s="2" t="s">
         <v>1046</v>
@@ -25797,25 +24528,25 @@
         <v>450</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>1138</v>
+        <v>1106</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1139</v>
+        <v>1107</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>1130</v>
+        <v>1108</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H445" s="2" t="s">
-        <v>1131</v>
+        <v>1109</v>
       </c>
       <c r="I445" s="2" t="s">
         <v>1056</v>
@@ -25839,25 +24570,25 @@
         <v>1047</v>
       </c>
       <c r="P445" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q445" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R445" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S445" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T445" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U445" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V445" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W445" s="2" t="s">
         <v>1046</v>
@@ -25866,13 +24597,13 @@
         <v>1046</v>
       </c>
       <c r="Y445" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z445" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA445" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB445" s="2" t="s">
         <v>1046</v>
@@ -25884,7 +24615,7 @@
         <v>1046</v>
       </c>
       <c r="AE445" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AF445" s="2" t="s">
         <v>1046</v>
@@ -25896,10 +24627,10 @@
         <v>1046</v>
       </c>
       <c r="AI445" s="2" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="AJ445" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK445" s="2" t="s">
         <v>1046</v>
@@ -25915,264 +24646,112 @@
       <c r="A446" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B446" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E446" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F446" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H446" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I446" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J446" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K446" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L446" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M446" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O446" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P446" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q446" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R446" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T446" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="U446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V446" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Y446" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Z446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA446" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AB446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE446" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AF446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI446" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AJ446" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AL446" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM446" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B446" s="2"/>
+      <c r="C446" s="2"/>
+      <c r="D446" s="2"/>
+      <c r="E446" s="2"/>
+      <c r="F446" s="2"/>
+      <c r="G446" s="2"/>
+      <c r="H446" s="2"/>
+      <c r="I446" s="2"/>
+      <c r="J446" s="2"/>
+      <c r="K446" s="2"/>
+      <c r="L446" s="2"/>
+      <c r="M446" s="2"/>
+      <c r="N446" s="2"/>
+      <c r="O446" s="2"/>
+      <c r="P446" s="2"/>
+      <c r="Q446" s="2"/>
+      <c r="R446" s="2"/>
+      <c r="S446" s="2"/>
+      <c r="T446" s="2"/>
+      <c r="U446" s="2"/>
+      <c r="V446" s="2"/>
+      <c r="W446" s="2"/>
+      <c r="X446" s="2"/>
+      <c r="Y446" s="2"/>
+      <c r="Z446" s="2"/>
+      <c r="AA446" s="2"/>
+      <c r="AB446" s="2"/>
+      <c r="AC446" s="2"/>
+      <c r="AD446" s="2"/>
+      <c r="AE446" s="2"/>
+      <c r="AF446" s="2"/>
+      <c r="AG446" s="2"/>
+      <c r="AH446" s="2"/>
+      <c r="AI446" s="2"/>
+      <c r="AJ446" s="2"/>
+      <c r="AK446" s="2"/>
+      <c r="AL446" s="2"/>
+      <c r="AM446" s="2"/>
     </row>
     <row r="447" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B447" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F447" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G447" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H447" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I447" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J447" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K447" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L447" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M447" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O447" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P447" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q447" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R447" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T447" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="U447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V447" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Y447" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="Z447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA447" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AB447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE447" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AF447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI447" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AJ447" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AL447" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AM447" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B447" s="2"/>
+      <c r="C447" s="2"/>
+      <c r="D447" s="2"/>
+      <c r="E447" s="2"/>
+      <c r="F447" s="2"/>
+      <c r="G447" s="2"/>
+      <c r="H447" s="2"/>
+      <c r="I447" s="2"/>
+      <c r="J447" s="2"/>
+      <c r="K447" s="2"/>
+      <c r="L447" s="2"/>
+      <c r="M447" s="2"/>
+      <c r="N447" s="2"/>
+      <c r="O447" s="2"/>
+      <c r="P447" s="2"/>
+      <c r="Q447" s="2"/>
+      <c r="R447" s="2"/>
+      <c r="S447" s="2"/>
+      <c r="T447" s="2"/>
+      <c r="U447" s="2"/>
+      <c r="V447" s="2"/>
+      <c r="W447" s="2"/>
+      <c r="X447" s="2"/>
+      <c r="Y447" s="2"/>
+      <c r="Z447" s="2"/>
+      <c r="AA447" s="2"/>
+      <c r="AB447" s="2"/>
+      <c r="AC447" s="2"/>
+      <c r="AD447" s="2"/>
+      <c r="AE447" s="2"/>
+      <c r="AF447" s="2"/>
+      <c r="AG447" s="2"/>
+      <c r="AH447" s="2"/>
+      <c r="AI447" s="2"/>
+      <c r="AJ447" s="2"/>
+      <c r="AK447" s="2"/>
+      <c r="AL447" s="2"/>
+      <c r="AM447" s="2"/>
     </row>
     <row r="448" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>453</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>1144</v>
+        <v>1110</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1145</v>
+        <v>1111</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>1130</v>
+        <v>1108</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H448" s="2" t="s">
-        <v>1131</v>
+        <v>1109</v>
       </c>
       <c r="I448" s="2" t="s">
         <v>1056</v>
@@ -26196,25 +24775,25 @@
         <v>1047</v>
       </c>
       <c r="P448" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q448" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R448" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S448" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T448" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U448" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V448" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W448" s="2" t="s">
         <v>1046</v>
@@ -26223,13 +24802,13 @@
         <v>1046</v>
       </c>
       <c r="Y448" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z448" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA448" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB448" s="2" t="s">
         <v>1046</v>
@@ -26241,7 +24820,7 @@
         <v>1046</v>
       </c>
       <c r="AE448" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AF448" s="2" t="s">
         <v>1046</v>
@@ -26253,10 +24832,10 @@
         <v>1046</v>
       </c>
       <c r="AI448" s="2" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="AJ448" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK448" s="2" t="s">
         <v>1046</v>
@@ -26273,25 +24852,25 @@
         <v>454</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>1146</v>
+        <v>1112</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1147</v>
+        <v>1113</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>1130</v>
+        <v>1108</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>1131</v>
+        <v>1109</v>
       </c>
       <c r="I449" s="2" t="s">
         <v>1056</v>
@@ -26315,25 +24894,25 @@
         <v>1047</v>
       </c>
       <c r="P449" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q449" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R449" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S449" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T449" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U449" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V449" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W449" s="2" t="s">
         <v>1046</v>
@@ -26342,13 +24921,13 @@
         <v>1046</v>
       </c>
       <c r="Y449" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z449" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA449" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB449" s="2" t="s">
         <v>1046</v>
@@ -26360,7 +24939,7 @@
         <v>1046</v>
       </c>
       <c r="AE449" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AF449" s="2" t="s">
         <v>1046</v>
@@ -26372,10 +24951,10 @@
         <v>1046</v>
       </c>
       <c r="AI449" s="2" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="AJ449" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK449" s="2" t="s">
         <v>1046</v>
@@ -26392,25 +24971,25 @@
         <v>455</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>1148</v>
+        <v>1114</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1149</v>
+        <v>1115</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>1130</v>
+        <v>1108</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H450" s="2" t="s">
-        <v>1131</v>
+        <v>1109</v>
       </c>
       <c r="I450" s="2" t="s">
         <v>1056</v>
@@ -26434,25 +25013,25 @@
         <v>1047</v>
       </c>
       <c r="P450" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q450" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R450" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S450" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T450" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U450" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V450" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W450" s="2" t="s">
         <v>1046</v>
@@ -26461,13 +25040,13 @@
         <v>1046</v>
       </c>
       <c r="Y450" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="Z450" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA450" s="2" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="AB450" s="2" t="s">
         <v>1046</v>
@@ -26479,7 +25058,7 @@
         <v>1046</v>
       </c>
       <c r="AE450" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AF450" s="2" t="s">
         <v>1046</v>
@@ -26491,10 +25070,10 @@
         <v>1046</v>
       </c>
       <c r="AI450" s="2" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="AJ450" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK450" s="2" t="s">
         <v>1046</v>
@@ -26511,34 +25090,34 @@
         <v>456</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1150</v>
+        <v>1084</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1040</v>
+        <v>1064</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>1151</v>
+        <v>1116</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1152</v>
+        <v>1117</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>1153</v>
+        <v>1108</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>1154</v>
+        <v>1109</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>1159</v>
+        <v>1056</v>
       </c>
       <c r="J451" s="2" t="s">
-        <v>1160</v>
+        <v>1056</v>
       </c>
       <c r="K451" s="2" t="s">
-        <v>1161</v>
+        <v>1056</v>
       </c>
       <c r="L451" s="2" t="s">
         <v>1056</v>
@@ -26553,40 +25132,40 @@
         <v>1047</v>
       </c>
       <c r="P451" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q451" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R451" s="2" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
       <c r="S451" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T451" s="2" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="U451" s="2" t="s">
-        <v>1155</v>
+        <v>1046</v>
       </c>
       <c r="V451" s="2" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="W451" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X451" s="2" t="s">
-        <v>1156</v>
+        <v>1046</v>
       </c>
       <c r="Y451" s="2" t="s">
-        <v>1156</v>
+        <v>1090</v>
       </c>
       <c r="Z451" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA451" s="2" t="s">
-        <v>1156</v>
+        <v>1090</v>
       </c>
       <c r="AB451" s="2" t="s">
         <v>1046</v>
@@ -26595,10 +25174,10 @@
         <v>1046</v>
       </c>
       <c r="AD451" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AE451" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AF451" s="2" t="s">
         <v>1046</v>
@@ -26610,19 +25189,19 @@
         <v>1046</v>
       </c>
       <c r="AI451" s="2" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="AJ451" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AK451" s="2" t="s">
-        <v>1157</v>
+        <v>1046</v>
       </c>
       <c r="AL451" s="2" t="s">
-        <v>1158</v>
+        <v>1046</v>
       </c>
       <c r="AM451" s="2" t="s">
-        <v>1158</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="452" spans="1:39" x14ac:dyDescent="0.25">
@@ -26630,34 +25209,34 @@
         <v>457</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>1150</v>
+        <v>1084</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1040</v>
+        <v>1064</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>1162</v>
+        <v>1118</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1163</v>
+        <v>1119</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>1153</v>
+        <v>1108</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>1154</v>
+        <v>1109</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>1164</v>
+        <v>1056</v>
       </c>
       <c r="J452" s="2" t="s">
-        <v>1165</v>
+        <v>1056</v>
       </c>
       <c r="K452" s="2" t="s">
-        <v>1166</v>
+        <v>1056</v>
       </c>
       <c r="L452" s="2" t="s">
         <v>1056</v>
@@ -26672,40 +25251,40 @@
         <v>1047</v>
       </c>
       <c r="P452" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q452" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R452" s="2" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
       <c r="S452" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T452" s="2" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="U452" s="2" t="s">
-        <v>1155</v>
+        <v>1046</v>
       </c>
       <c r="V452" s="2" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="W452" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X452" s="2" t="s">
-        <v>1156</v>
+        <v>1046</v>
       </c>
       <c r="Y452" s="2" t="s">
-        <v>1156</v>
+        <v>1090</v>
       </c>
       <c r="Z452" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA452" s="2" t="s">
-        <v>1156</v>
+        <v>1090</v>
       </c>
       <c r="AB452" s="2" t="s">
         <v>1046</v>
@@ -26714,10 +25293,10 @@
         <v>1046</v>
       </c>
       <c r="AD452" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AE452" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AF452" s="2" t="s">
         <v>1046</v>
@@ -26729,292 +25308,140 @@
         <v>1046</v>
       </c>
       <c r="AI452" s="2" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="AJ452" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AK452" s="2" t="s">
-        <v>1157</v>
+        <v>1046</v>
       </c>
       <c r="AL452" s="2" t="s">
-        <v>1158</v>
+        <v>1046</v>
       </c>
       <c r="AM452" s="2" t="s">
-        <v>1158</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="453" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B453" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F453" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G453" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H453" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I453" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J453" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="K453" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="L453" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M453" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O453" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P453" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q453" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R453" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T453" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U453" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="V453" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X453" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Y453" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA453" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AB453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD453" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AE453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ453" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK453" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AL453" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AM453" s="2" t="s">
-        <v>1158</v>
-      </c>
+      <c r="B453" s="2"/>
+      <c r="C453" s="2"/>
+      <c r="D453" s="2"/>
+      <c r="E453" s="2"/>
+      <c r="F453" s="2"/>
+      <c r="G453" s="2"/>
+      <c r="H453" s="2"/>
+      <c r="I453" s="2"/>
+      <c r="J453" s="2"/>
+      <c r="K453" s="2"/>
+      <c r="L453" s="2"/>
+      <c r="M453" s="2"/>
+      <c r="N453" s="2"/>
+      <c r="O453" s="2"/>
+      <c r="P453" s="2"/>
+      <c r="Q453" s="2"/>
+      <c r="R453" s="2"/>
+      <c r="S453" s="2"/>
+      <c r="T453" s="2"/>
+      <c r="U453" s="2"/>
+      <c r="V453" s="2"/>
+      <c r="W453" s="2"/>
+      <c r="X453" s="2"/>
+      <c r="Y453" s="2"/>
+      <c r="Z453" s="2"/>
+      <c r="AA453" s="2"/>
+      <c r="AB453" s="2"/>
+      <c r="AC453" s="2"/>
+      <c r="AD453" s="2"/>
+      <c r="AE453" s="2"/>
+      <c r="AF453" s="2"/>
+      <c r="AG453" s="2"/>
+      <c r="AH453" s="2"/>
+      <c r="AI453" s="2"/>
+      <c r="AJ453" s="2"/>
+      <c r="AK453" s="2"/>
+      <c r="AL453" s="2"/>
+      <c r="AM453" s="2"/>
     </row>
     <row r="454" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B454" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E454" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F454" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G454" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H454" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I454" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J454" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K454" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="L454" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M454" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O454" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P454" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q454" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R454" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T454" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U454" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="V454" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X454" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Y454" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA454" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AB454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD454" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AE454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ454" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK454" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AL454" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AM454" s="2" t="s">
-        <v>1158</v>
-      </c>
+      <c r="B454" s="2"/>
+      <c r="C454" s="2"/>
+      <c r="D454" s="2"/>
+      <c r="E454" s="2"/>
+      <c r="F454" s="2"/>
+      <c r="G454" s="2"/>
+      <c r="H454" s="2"/>
+      <c r="I454" s="2"/>
+      <c r="J454" s="2"/>
+      <c r="K454" s="2"/>
+      <c r="L454" s="2"/>
+      <c r="M454" s="2"/>
+      <c r="N454" s="2"/>
+      <c r="O454" s="2"/>
+      <c r="P454" s="2"/>
+      <c r="Q454" s="2"/>
+      <c r="R454" s="2"/>
+      <c r="S454" s="2"/>
+      <c r="T454" s="2"/>
+      <c r="U454" s="2"/>
+      <c r="V454" s="2"/>
+      <c r="W454" s="2"/>
+      <c r="X454" s="2"/>
+      <c r="Y454" s="2"/>
+      <c r="Z454" s="2"/>
+      <c r="AA454" s="2"/>
+      <c r="AB454" s="2"/>
+      <c r="AC454" s="2"/>
+      <c r="AD454" s="2"/>
+      <c r="AE454" s="2"/>
+      <c r="AF454" s="2"/>
+      <c r="AG454" s="2"/>
+      <c r="AH454" s="2"/>
+      <c r="AI454" s="2"/>
+      <c r="AJ454" s="2"/>
+      <c r="AK454" s="2"/>
+      <c r="AL454" s="2"/>
+      <c r="AM454" s="2"/>
     </row>
     <row r="455" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>460</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1177</v>
+        <v>1121</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1178</v>
+        <v>1122</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>1153</v>
+        <v>1123</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>1154</v>
+        <v>1124</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>1179</v>
+        <v>1129</v>
       </c>
       <c r="J455" s="2" t="s">
-        <v>1180</v>
+        <v>1130</v>
       </c>
       <c r="K455" s="2" t="s">
-        <v>1181</v>
+        <v>1131</v>
       </c>
       <c r="L455" s="2" t="s">
         <v>1056</v>
@@ -27029,7 +25456,7 @@
         <v>1047</v>
       </c>
       <c r="P455" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q455" s="2" t="s">
         <v>1049</v>
@@ -27044,7 +25471,7 @@
         <v>1051</v>
       </c>
       <c r="U455" s="2" t="s">
-        <v>1155</v>
+        <v>1125</v>
       </c>
       <c r="V455" s="2" t="s">
         <v>1052</v>
@@ -27053,16 +25480,16 @@
         <v>1046</v>
       </c>
       <c r="X455" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Y455" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z455" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA455" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB455" s="2" t="s">
         <v>1046</v>
@@ -27071,7 +25498,7 @@
         <v>1046</v>
       </c>
       <c r="AD455" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AE455" s="2" t="s">
         <v>1046</v>
@@ -27092,13 +25519,13 @@
         <v>1046</v>
       </c>
       <c r="AK455" s="2" t="s">
-        <v>1157</v>
+        <v>1127</v>
       </c>
       <c r="AL455" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM455" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="456" spans="1:39" x14ac:dyDescent="0.25">
@@ -27106,34 +25533,34 @@
         <v>461</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1182</v>
+        <v>1132</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1183</v>
+        <v>1133</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>1153</v>
+        <v>1123</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>1154</v>
+        <v>1124</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>1184</v>
+        <v>1134</v>
       </c>
       <c r="J456" s="2" t="s">
-        <v>1185</v>
+        <v>1135</v>
       </c>
       <c r="K456" s="2" t="s">
-        <v>1186</v>
+        <v>1136</v>
       </c>
       <c r="L456" s="2" t="s">
         <v>1056</v>
@@ -27148,7 +25575,7 @@
         <v>1047</v>
       </c>
       <c r="P456" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q456" s="2" t="s">
         <v>1049</v>
@@ -27163,7 +25590,7 @@
         <v>1051</v>
       </c>
       <c r="U456" s="2" t="s">
-        <v>1155</v>
+        <v>1125</v>
       </c>
       <c r="V456" s="2" t="s">
         <v>1052</v>
@@ -27172,16 +25599,16 @@
         <v>1046</v>
       </c>
       <c r="X456" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Y456" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z456" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA456" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB456" s="2" t="s">
         <v>1046</v>
@@ -27190,7 +25617,7 @@
         <v>1046</v>
       </c>
       <c r="AD456" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AE456" s="2" t="s">
         <v>1046</v>
@@ -27211,13 +25638,13 @@
         <v>1046</v>
       </c>
       <c r="AK456" s="2" t="s">
-        <v>1157</v>
+        <v>1127</v>
       </c>
       <c r="AL456" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM456" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="457" spans="1:39" x14ac:dyDescent="0.25">
@@ -27225,34 +25652,34 @@
         <v>462</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>1187</v>
+        <v>1137</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1188</v>
+        <v>1138</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>1153</v>
+        <v>1123</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H457" s="2" t="s">
-        <v>1154</v>
+        <v>1124</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>1189</v>
+        <v>1139</v>
       </c>
       <c r="J457" s="2" t="s">
-        <v>1190</v>
+        <v>1140</v>
       </c>
       <c r="K457" s="2" t="s">
-        <v>1191</v>
+        <v>1141</v>
       </c>
       <c r="L457" s="2" t="s">
         <v>1056</v>
@@ -27267,7 +25694,7 @@
         <v>1047</v>
       </c>
       <c r="P457" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q457" s="2" t="s">
         <v>1049</v>
@@ -27282,7 +25709,7 @@
         <v>1051</v>
       </c>
       <c r="U457" s="2" t="s">
-        <v>1155</v>
+        <v>1125</v>
       </c>
       <c r="V457" s="2" t="s">
         <v>1052</v>
@@ -27291,16 +25718,16 @@
         <v>1046</v>
       </c>
       <c r="X457" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Y457" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z457" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA457" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB457" s="2" t="s">
         <v>1046</v>
@@ -27309,7 +25736,7 @@
         <v>1046</v>
       </c>
       <c r="AD457" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AE457" s="2" t="s">
         <v>1046</v>
@@ -27330,13 +25757,13 @@
         <v>1046</v>
       </c>
       <c r="AK457" s="2" t="s">
-        <v>1157</v>
+        <v>1127</v>
       </c>
       <c r="AL457" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM457" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="458" spans="1:39" x14ac:dyDescent="0.25">
@@ -27344,34 +25771,34 @@
         <v>463</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>1192</v>
+        <v>1142</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1193</v>
+        <v>1143</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>1153</v>
+        <v>1123</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>1154</v>
+        <v>1124</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>1194</v>
+        <v>1144</v>
       </c>
       <c r="J458" s="2" t="s">
-        <v>1195</v>
+        <v>1145</v>
       </c>
       <c r="K458" s="2" t="s">
-        <v>1196</v>
+        <v>1146</v>
       </c>
       <c r="L458" s="2" t="s">
         <v>1056</v>
@@ -27386,7 +25813,7 @@
         <v>1047</v>
       </c>
       <c r="P458" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q458" s="2" t="s">
         <v>1049</v>
@@ -27401,7 +25828,7 @@
         <v>1051</v>
       </c>
       <c r="U458" s="2" t="s">
-        <v>1155</v>
+        <v>1125</v>
       </c>
       <c r="V458" s="2" t="s">
         <v>1052</v>
@@ -27410,16 +25837,16 @@
         <v>1046</v>
       </c>
       <c r="X458" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Y458" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z458" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA458" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB458" s="2" t="s">
         <v>1046</v>
@@ -27428,7 +25855,7 @@
         <v>1046</v>
       </c>
       <c r="AD458" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AE458" s="2" t="s">
         <v>1046</v>
@@ -27449,13 +25876,13 @@
         <v>1046</v>
       </c>
       <c r="AK458" s="2" t="s">
-        <v>1157</v>
+        <v>1127</v>
       </c>
       <c r="AL458" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM458" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="459" spans="1:39" x14ac:dyDescent="0.25">
@@ -27463,34 +25890,34 @@
         <v>464</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>1197</v>
+        <v>1147</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1198</v>
+        <v>1148</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>1153</v>
+        <v>1123</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>1154</v>
+        <v>1124</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>1199</v>
+        <v>1149</v>
       </c>
       <c r="J459" s="2" t="s">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="K459" s="2" t="s">
-        <v>1201</v>
+        <v>1151</v>
       </c>
       <c r="L459" s="2" t="s">
         <v>1056</v>
@@ -27505,7 +25932,7 @@
         <v>1047</v>
       </c>
       <c r="P459" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q459" s="2" t="s">
         <v>1049</v>
@@ -27520,7 +25947,7 @@
         <v>1051</v>
       </c>
       <c r="U459" s="2" t="s">
-        <v>1155</v>
+        <v>1125</v>
       </c>
       <c r="V459" s="2" t="s">
         <v>1052</v>
@@ -27529,16 +25956,16 @@
         <v>1046</v>
       </c>
       <c r="X459" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Y459" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z459" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA459" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB459" s="2" t="s">
         <v>1046</v>
@@ -27547,7 +25974,7 @@
         <v>1046</v>
       </c>
       <c r="AD459" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AE459" s="2" t="s">
         <v>1046</v>
@@ -27568,286 +25995,134 @@
         <v>1046</v>
       </c>
       <c r="AK459" s="2" t="s">
-        <v>1157</v>
+        <v>1127</v>
       </c>
       <c r="AL459" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM459" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="460" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B460" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E460" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F460" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G460" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H460" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I460" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="J460" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="K460" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="L460" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M460" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O460" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P460" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q460" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R460" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="S460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T460" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U460" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="V460" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X460" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Y460" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA460" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AB460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD460" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AE460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AF460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AJ460" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AK460" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AL460" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AM460" s="2" t="s">
-        <v>1158</v>
-      </c>
+      <c r="B460" s="2"/>
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
+      <c r="H460" s="2"/>
+      <c r="I460" s="2"/>
+      <c r="J460" s="2"/>
+      <c r="K460" s="2"/>
+      <c r="L460" s="2"/>
+      <c r="M460" s="2"/>
+      <c r="N460" s="2"/>
+      <c r="O460" s="2"/>
+      <c r="P460" s="2"/>
+      <c r="Q460" s="2"/>
+      <c r="R460" s="2"/>
+      <c r="S460" s="2"/>
+      <c r="T460" s="2"/>
+      <c r="U460" s="2"/>
+      <c r="V460" s="2"/>
+      <c r="W460" s="2"/>
+      <c r="X460" s="2"/>
+      <c r="Y460" s="2"/>
+      <c r="Z460" s="2"/>
+      <c r="AA460" s="2"/>
+      <c r="AB460" s="2"/>
+      <c r="AC460" s="2"/>
+      <c r="AD460" s="2"/>
+      <c r="AE460" s="2"/>
+      <c r="AF460" s="2"/>
+      <c r="AG460" s="2"/>
+      <c r="AH460" s="2"/>
+      <c r="AI460" s="2"/>
+      <c r="AJ460" s="2"/>
+      <c r="AK460" s="2"/>
+      <c r="AL460" s="2"/>
+      <c r="AM460" s="2"/>
     </row>
     <row r="461" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B461" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E461" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F461" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G461" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H461" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I461" s="2" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J461" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="K461" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="L461" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M461" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O461" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P461" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q461" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R461" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T461" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="U461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V461" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Y461" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA461" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AB461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE461" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AF461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI461" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AJ461" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK461" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AL461" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AM461" s="2" t="s">
-        <v>1158</v>
-      </c>
+      <c r="B461" s="2"/>
+      <c r="C461" s="2"/>
+      <c r="D461" s="2"/>
+      <c r="E461" s="2"/>
+      <c r="F461" s="2"/>
+      <c r="G461" s="2"/>
+      <c r="H461" s="2"/>
+      <c r="I461" s="2"/>
+      <c r="J461" s="2"/>
+      <c r="K461" s="2"/>
+      <c r="L461" s="2"/>
+      <c r="M461" s="2"/>
+      <c r="N461" s="2"/>
+      <c r="O461" s="2"/>
+      <c r="P461" s="2"/>
+      <c r="Q461" s="2"/>
+      <c r="R461" s="2"/>
+      <c r="S461" s="2"/>
+      <c r="T461" s="2"/>
+      <c r="U461" s="2"/>
+      <c r="V461" s="2"/>
+      <c r="W461" s="2"/>
+      <c r="X461" s="2"/>
+      <c r="Y461" s="2"/>
+      <c r="Z461" s="2"/>
+      <c r="AA461" s="2"/>
+      <c r="AB461" s="2"/>
+      <c r="AC461" s="2"/>
+      <c r="AD461" s="2"/>
+      <c r="AE461" s="2"/>
+      <c r="AF461" s="2"/>
+      <c r="AG461" s="2"/>
+      <c r="AH461" s="2"/>
+      <c r="AI461" s="2"/>
+      <c r="AJ461" s="2"/>
+      <c r="AK461" s="2"/>
+      <c r="AL461" s="2"/>
+      <c r="AM461" s="2"/>
     </row>
     <row r="462" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1075</v>
+        <v>1040</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>1213</v>
+        <v>1152</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1214</v>
+        <v>1153</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>1209</v>
+        <v>1123</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>1210</v>
+        <v>1124</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>1215</v>
+        <v>1154</v>
       </c>
       <c r="J462" s="2" t="s">
-        <v>1205</v>
+        <v>1155</v>
       </c>
       <c r="K462" s="2" t="s">
-        <v>1206</v>
+        <v>1156</v>
       </c>
       <c r="L462" s="2" t="s">
         <v>1056</v>
@@ -27862,40 +26137,40 @@
         <v>1047</v>
       </c>
       <c r="P462" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q462" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R462" s="2" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="S462" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T462" s="2" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="U462" s="2" t="s">
-        <v>1046</v>
+        <v>1125</v>
       </c>
       <c r="V462" s="2" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="W462" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X462" s="2" t="s">
-        <v>1046</v>
+        <v>1126</v>
       </c>
       <c r="Y462" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z462" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA462" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB462" s="2" t="s">
         <v>1046</v>
@@ -27904,10 +26179,10 @@
         <v>1046</v>
       </c>
       <c r="AD462" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AE462" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AF462" s="2" t="s">
         <v>1046</v>
@@ -27919,19 +26194,19 @@
         <v>1046</v>
       </c>
       <c r="AI462" s="2" t="s">
-        <v>1211</v>
+        <v>1046</v>
       </c>
       <c r="AJ462" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AK462" s="2" t="s">
-        <v>1046</v>
+        <v>1127</v>
       </c>
       <c r="AL462" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM462" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="463" spans="1:39" x14ac:dyDescent="0.25">
@@ -27939,34 +26214,34 @@
         <v>468</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1075</v>
+        <v>1040</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>1216</v>
+        <v>1157</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1217</v>
+        <v>1158</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>1209</v>
+        <v>1123</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>1210</v>
+        <v>1124</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>1218</v>
+        <v>1159</v>
       </c>
       <c r="J463" s="2" t="s">
-        <v>1205</v>
+        <v>1160</v>
       </c>
       <c r="K463" s="2" t="s">
-        <v>1206</v>
+        <v>1161</v>
       </c>
       <c r="L463" s="2" t="s">
         <v>1056</v>
@@ -27981,40 +26256,40 @@
         <v>1047</v>
       </c>
       <c r="P463" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q463" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R463" s="2" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="S463" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T463" s="2" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="U463" s="2" t="s">
-        <v>1046</v>
+        <v>1125</v>
       </c>
       <c r="V463" s="2" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="W463" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X463" s="2" t="s">
-        <v>1046</v>
+        <v>1126</v>
       </c>
       <c r="Y463" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z463" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA463" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB463" s="2" t="s">
         <v>1046</v>
@@ -28023,10 +26298,10 @@
         <v>1046</v>
       </c>
       <c r="AD463" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AE463" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AF463" s="2" t="s">
         <v>1046</v>
@@ -28038,19 +26313,19 @@
         <v>1046</v>
       </c>
       <c r="AI463" s="2" t="s">
-        <v>1211</v>
+        <v>1046</v>
       </c>
       <c r="AJ463" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AK463" s="2" t="s">
-        <v>1046</v>
+        <v>1127</v>
       </c>
       <c r="AL463" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM463" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="464" spans="1:39" x14ac:dyDescent="0.25">
@@ -28058,34 +26333,34 @@
         <v>469</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1075</v>
+        <v>1040</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>1219</v>
+        <v>1162</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1220</v>
+        <v>1163</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>1209</v>
+        <v>1123</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>1210</v>
+        <v>1124</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>1221</v>
+        <v>1164</v>
       </c>
       <c r="J464" s="2" t="s">
-        <v>1205</v>
+        <v>1165</v>
       </c>
       <c r="K464" s="2" t="s">
-        <v>1206</v>
+        <v>1166</v>
       </c>
       <c r="L464" s="2" t="s">
         <v>1056</v>
@@ -28100,40 +26375,40 @@
         <v>1047</v>
       </c>
       <c r="P464" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q464" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R464" s="2" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="S464" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T464" s="2" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="U464" s="2" t="s">
-        <v>1046</v>
+        <v>1125</v>
       </c>
       <c r="V464" s="2" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="W464" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="X464" s="2" t="s">
-        <v>1046</v>
+        <v>1126</v>
       </c>
       <c r="Y464" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z464" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA464" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB464" s="2" t="s">
         <v>1046</v>
@@ -28142,10 +26417,10 @@
         <v>1046</v>
       </c>
       <c r="AD464" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="AE464" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AF464" s="2" t="s">
         <v>1046</v>
@@ -28157,173 +26432,97 @@
         <v>1046</v>
       </c>
       <c r="AI464" s="2" t="s">
-        <v>1211</v>
+        <v>1046</v>
       </c>
       <c r="AJ464" s="2" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="AK464" s="2" t="s">
-        <v>1046</v>
+        <v>1127</v>
       </c>
       <c r="AL464" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM464" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="465" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B465" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E465" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F465" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G465" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H465" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I465" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="J465" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="K465" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="L465" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M465" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O465" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P465" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="Q465" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R465" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="S465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T465" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="U465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="V465" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="Y465" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="Z465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AA465" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AB465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AC465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE465" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AF465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AG465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AH465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI465" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AJ465" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK465" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AL465" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AM465" s="2" t="s">
-        <v>1158</v>
-      </c>
+      <c r="B465" s="2"/>
+      <c r="C465" s="2"/>
+      <c r="D465" s="2"/>
+      <c r="E465" s="2"/>
+      <c r="F465" s="2"/>
+      <c r="G465" s="2"/>
+      <c r="H465" s="2"/>
+      <c r="I465" s="2"/>
+      <c r="J465" s="2"/>
+      <c r="K465" s="2"/>
+      <c r="L465" s="2"/>
+      <c r="M465" s="2"/>
+      <c r="N465" s="2"/>
+      <c r="O465" s="2"/>
+      <c r="P465" s="2"/>
+      <c r="Q465" s="2"/>
+      <c r="R465" s="2"/>
+      <c r="S465" s="2"/>
+      <c r="T465" s="2"/>
+      <c r="U465" s="2"/>
+      <c r="V465" s="2"/>
+      <c r="W465" s="2"/>
+      <c r="X465" s="2"/>
+      <c r="Y465" s="2"/>
+      <c r="Z465" s="2"/>
+      <c r="AA465" s="2"/>
+      <c r="AB465" s="2"/>
+      <c r="AC465" s="2"/>
+      <c r="AD465" s="2"/>
+      <c r="AE465" s="2"/>
+      <c r="AF465" s="2"/>
+      <c r="AG465" s="2"/>
+      <c r="AH465" s="2"/>
+      <c r="AI465" s="2"/>
+      <c r="AJ465" s="2"/>
+      <c r="AK465" s="2"/>
+      <c r="AL465" s="2"/>
+      <c r="AM465" s="2"/>
     </row>
     <row r="466" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>471</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1225</v>
+        <v>1167</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1226</v>
+        <v>1168</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>1209</v>
+        <v>1169</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H466" s="2" t="s">
-        <v>1210</v>
+        <v>1170</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>1227</v>
+        <v>1172</v>
       </c>
       <c r="J466" s="2" t="s">
-        <v>1205</v>
+        <v>1165</v>
       </c>
       <c r="K466" s="2" t="s">
-        <v>1206</v>
+        <v>1166</v>
       </c>
       <c r="L466" s="2" t="s">
         <v>1056</v>
@@ -28338,25 +26537,25 @@
         <v>1047</v>
       </c>
       <c r="P466" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q466" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R466" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S466" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T466" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U466" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V466" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W466" s="2" t="s">
         <v>1046</v>
@@ -28365,13 +26564,13 @@
         <v>1046</v>
       </c>
       <c r="Y466" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z466" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA466" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB466" s="2" t="s">
         <v>1046</v>
@@ -28383,7 +26582,7 @@
         <v>1046</v>
       </c>
       <c r="AE466" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AF466" s="2" t="s">
         <v>1046</v>
@@ -28395,19 +26594,19 @@
         <v>1046</v>
       </c>
       <c r="AI466" s="2" t="s">
-        <v>1211</v>
+        <v>1171</v>
       </c>
       <c r="AJ466" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK466" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AL466" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM466" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="467" spans="1:39" x14ac:dyDescent="0.25">
@@ -28415,34 +26614,34 @@
         <v>472</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1228</v>
+        <v>1173</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1229</v>
+        <v>1174</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>1209</v>
+        <v>1169</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>1210</v>
+        <v>1170</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>1230</v>
+        <v>1175</v>
       </c>
       <c r="J467" s="2" t="s">
-        <v>1205</v>
+        <v>1165</v>
       </c>
       <c r="K467" s="2" t="s">
-        <v>1206</v>
+        <v>1166</v>
       </c>
       <c r="L467" s="2" t="s">
         <v>1056</v>
@@ -28457,25 +26656,25 @@
         <v>1047</v>
       </c>
       <c r="P467" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q467" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R467" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S467" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T467" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U467" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V467" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W467" s="2" t="s">
         <v>1046</v>
@@ -28484,13 +26683,13 @@
         <v>1046</v>
       </c>
       <c r="Y467" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z467" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA467" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB467" s="2" t="s">
         <v>1046</v>
@@ -28502,7 +26701,7 @@
         <v>1046</v>
       </c>
       <c r="AE467" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AF467" s="2" t="s">
         <v>1046</v>
@@ -28514,19 +26713,19 @@
         <v>1046</v>
       </c>
       <c r="AI467" s="2" t="s">
-        <v>1211</v>
+        <v>1171</v>
       </c>
       <c r="AJ467" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK467" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AL467" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM467" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="468" spans="1:39" x14ac:dyDescent="0.25">
@@ -28534,34 +26733,34 @@
         <v>473</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>1231</v>
+        <v>1176</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1232</v>
+        <v>1177</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>1209</v>
+        <v>1169</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H468" s="2" t="s">
-        <v>1210</v>
+        <v>1170</v>
       </c>
       <c r="I468" s="2" t="s">
-        <v>1233</v>
+        <v>1178</v>
       </c>
       <c r="J468" s="2" t="s">
-        <v>1205</v>
+        <v>1165</v>
       </c>
       <c r="K468" s="2" t="s">
-        <v>1206</v>
+        <v>1166</v>
       </c>
       <c r="L468" s="2" t="s">
         <v>1056</v>
@@ -28576,25 +26775,25 @@
         <v>1047</v>
       </c>
       <c r="P468" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q468" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R468" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S468" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T468" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U468" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V468" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W468" s="2" t="s">
         <v>1046</v>
@@ -28603,13 +26802,13 @@
         <v>1046</v>
       </c>
       <c r="Y468" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z468" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA468" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB468" s="2" t="s">
         <v>1046</v>
@@ -28621,7 +26820,7 @@
         <v>1046</v>
       </c>
       <c r="AE468" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AF468" s="2" t="s">
         <v>1046</v>
@@ -28633,19 +26832,19 @@
         <v>1046</v>
       </c>
       <c r="AI468" s="2" t="s">
-        <v>1211</v>
+        <v>1171</v>
       </c>
       <c r="AJ468" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK468" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AL468" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM468" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="469" spans="1:39" x14ac:dyDescent="0.25">
@@ -28653,34 +26852,34 @@
         <v>474</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>1234</v>
+        <v>1179</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>1235</v>
+        <v>1180</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>1209</v>
+        <v>1169</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H469" s="2" t="s">
-        <v>1210</v>
+        <v>1170</v>
       </c>
       <c r="I469" s="2" t="s">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="J469" s="2" t="s">
-        <v>1205</v>
+        <v>1165</v>
       </c>
       <c r="K469" s="2" t="s">
-        <v>1206</v>
+        <v>1166</v>
       </c>
       <c r="L469" s="2" t="s">
         <v>1056</v>
@@ -28695,25 +26894,25 @@
         <v>1047</v>
       </c>
       <c r="P469" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q469" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R469" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S469" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T469" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U469" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V469" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W469" s="2" t="s">
         <v>1046</v>
@@ -28722,13 +26921,13 @@
         <v>1046</v>
       </c>
       <c r="Y469" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z469" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA469" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB469" s="2" t="s">
         <v>1046</v>
@@ -28740,7 +26939,7 @@
         <v>1046</v>
       </c>
       <c r="AE469" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AF469" s="2" t="s">
         <v>1046</v>
@@ -28752,19 +26951,19 @@
         <v>1046</v>
       </c>
       <c r="AI469" s="2" t="s">
-        <v>1211</v>
+        <v>1171</v>
       </c>
       <c r="AJ469" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK469" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AL469" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM469" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="470" spans="1:39" x14ac:dyDescent="0.25">
@@ -28772,34 +26971,34 @@
         <v>475</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1237</v>
+        <v>1182</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1238</v>
+        <v>1183</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>1209</v>
+        <v>1169</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="H470" s="2" t="s">
-        <v>1210</v>
+        <v>1170</v>
       </c>
       <c r="I470" s="2" t="s">
-        <v>1239</v>
+        <v>1184</v>
       </c>
       <c r="J470" s="2" t="s">
-        <v>1205</v>
+        <v>1165</v>
       </c>
       <c r="K470" s="2" t="s">
-        <v>1206</v>
+        <v>1166</v>
       </c>
       <c r="L470" s="2" t="s">
         <v>1056</v>
@@ -28814,25 +27013,25 @@
         <v>1047</v>
       </c>
       <c r="P470" s="2" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="Q470" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="R470" s="2" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="S470" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="T470" s="2" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="U470" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="V470" s="2" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="W470" s="2" t="s">
         <v>1046</v>
@@ -28841,13 +27040,13 @@
         <v>1046</v>
       </c>
       <c r="Y470" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="Z470" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AA470" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="AB470" s="2" t="s">
         <v>1046</v>
@@ -28859,7 +27058,7 @@
         <v>1046</v>
       </c>
       <c r="AE470" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AF470" s="2" t="s">
         <v>1046</v>
@@ -28871,192 +27070,496 @@
         <v>1046</v>
       </c>
       <c r="AI470" s="2" t="s">
-        <v>1211</v>
+        <v>1171</v>
       </c>
       <c r="AJ470" s="2" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="AK470" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="AL470" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="AM470" s="2" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="471" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
-      <c r="D471" s="2"/>
-      <c r="E471" s="2"/>
-      <c r="F471" s="2"/>
-      <c r="G471" s="2"/>
-      <c r="H471" s="2"/>
-      <c r="I471" s="2"/>
-      <c r="J471" s="2"/>
-      <c r="K471" s="2"/>
-      <c r="L471" s="2"/>
-      <c r="M471" s="2"/>
-      <c r="N471" s="2"/>
-      <c r="O471" s="2"/>
-      <c r="P471" s="2"/>
-      <c r="Q471" s="2"/>
-      <c r="R471" s="2"/>
-      <c r="S471" s="2"/>
-      <c r="T471" s="2"/>
-      <c r="U471" s="2"/>
-      <c r="V471" s="2"/>
-      <c r="W471" s="2"/>
-      <c r="X471" s="2"/>
-      <c r="Y471" s="2"/>
-      <c r="Z471" s="2"/>
-      <c r="AA471" s="2"/>
-      <c r="AB471" s="2"/>
-      <c r="AC471" s="2"/>
-      <c r="AD471" s="2"/>
-      <c r="AE471" s="2"/>
-      <c r="AF471" s="2"/>
-      <c r="AG471" s="2"/>
-      <c r="AH471" s="2"/>
-      <c r="AI471" s="2"/>
-      <c r="AJ471" s="2"/>
-      <c r="AK471" s="2"/>
-      <c r="AL471" s="2"/>
-      <c r="AM471" s="2"/>
+      <c r="B471" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H471" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I471" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J471" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K471" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L471" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M471" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O471" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P471" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q471" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R471" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T471" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="V471" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="X471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Y471" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Z471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AA471" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AB471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AC471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AD471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AE471" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AF471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AG471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AH471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AI471" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AJ471" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AK471" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AL471" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AM471" s="2" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="472" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B472" s="2"/>
-      <c r="C472" s="2"/>
-      <c r="D472" s="2"/>
-      <c r="E472" s="2"/>
-      <c r="F472" s="2"/>
-      <c r="G472" s="2"/>
-      <c r="H472" s="2"/>
-      <c r="I472" s="2"/>
-      <c r="J472" s="2"/>
-      <c r="K472" s="2"/>
-      <c r="L472" s="2"/>
-      <c r="M472" s="2"/>
-      <c r="N472" s="2"/>
-      <c r="O472" s="2"/>
-      <c r="P472" s="2"/>
-      <c r="Q472" s="2"/>
-      <c r="R472" s="2"/>
-      <c r="S472" s="2"/>
-      <c r="T472" s="2"/>
-      <c r="U472" s="2"/>
-      <c r="V472" s="2"/>
-      <c r="W472" s="2"/>
-      <c r="X472" s="2"/>
-      <c r="Y472" s="2"/>
-      <c r="Z472" s="2"/>
-      <c r="AA472" s="2"/>
-      <c r="AB472" s="2"/>
-      <c r="AC472" s="2"/>
-      <c r="AD472" s="2"/>
-      <c r="AE472" s="2"/>
-      <c r="AF472" s="2"/>
-      <c r="AG472" s="2"/>
-      <c r="AH472" s="2"/>
-      <c r="AI472" s="2"/>
-      <c r="AJ472" s="2"/>
-      <c r="AK472" s="2"/>
-      <c r="AL472" s="2"/>
-      <c r="AM472" s="2"/>
+      <c r="B472" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G472" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H472" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J472" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K472" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L472" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M472" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O472" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P472" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q472" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R472" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T472" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="V472" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="X472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Y472" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Z472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AA472" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AB472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AC472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AD472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AE472" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AF472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AG472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AH472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AI472" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AJ472" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AK472" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AL472" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AM472" s="2" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="473" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
-      <c r="D473" s="2"/>
-      <c r="E473" s="2"/>
-      <c r="F473" s="2"/>
-      <c r="G473" s="2"/>
-      <c r="H473" s="2"/>
-      <c r="I473" s="2"/>
-      <c r="J473" s="2"/>
-      <c r="K473" s="2"/>
-      <c r="L473" s="2"/>
-      <c r="M473" s="2"/>
-      <c r="N473" s="2"/>
-      <c r="O473" s="2"/>
-      <c r="P473" s="2"/>
-      <c r="Q473" s="2"/>
-      <c r="R473" s="2"/>
-      <c r="S473" s="2"/>
-      <c r="T473" s="2"/>
-      <c r="U473" s="2"/>
-      <c r="V473" s="2"/>
-      <c r="W473" s="2"/>
-      <c r="X473" s="2"/>
-      <c r="Y473" s="2"/>
-      <c r="Z473" s="2"/>
-      <c r="AA473" s="2"/>
-      <c r="AB473" s="2"/>
-      <c r="AC473" s="2"/>
-      <c r="AD473" s="2"/>
-      <c r="AE473" s="2"/>
-      <c r="AF473" s="2"/>
-      <c r="AG473" s="2"/>
-      <c r="AH473" s="2"/>
-      <c r="AI473" s="2"/>
-      <c r="AJ473" s="2"/>
-      <c r="AK473" s="2"/>
-      <c r="AL473" s="2"/>
-      <c r="AM473" s="2"/>
+      <c r="B473" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H473" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I473" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J473" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K473" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L473" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M473" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O473" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P473" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q473" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R473" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T473" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="V473" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="X473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Y473" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Z473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AA473" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AB473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AC473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AD473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AE473" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AF473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AG473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AH473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AI473" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AJ473" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AK473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AL473" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AM473" s="2" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="474" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
-      <c r="D474" s="2"/>
-      <c r="E474" s="2"/>
-      <c r="F474" s="2"/>
-      <c r="G474" s="2"/>
-      <c r="H474" s="2"/>
-      <c r="I474" s="2"/>
-      <c r="J474" s="2"/>
-      <c r="K474" s="2"/>
-      <c r="L474" s="2"/>
-      <c r="M474" s="2"/>
-      <c r="N474" s="2"/>
-      <c r="O474" s="2"/>
-      <c r="P474" s="2"/>
-      <c r="Q474" s="2"/>
-      <c r="R474" s="2"/>
-      <c r="S474" s="2"/>
-      <c r="T474" s="2"/>
-      <c r="U474" s="2"/>
-      <c r="V474" s="2"/>
-      <c r="W474" s="2"/>
-      <c r="X474" s="2"/>
-      <c r="Y474" s="2"/>
-      <c r="Z474" s="2"/>
-      <c r="AA474" s="2"/>
-      <c r="AB474" s="2"/>
-      <c r="AC474" s="2"/>
-      <c r="AD474" s="2"/>
-      <c r="AE474" s="2"/>
-      <c r="AF474" s="2"/>
-      <c r="AG474" s="2"/>
-      <c r="AH474" s="2"/>
-      <c r="AI474" s="2"/>
-      <c r="AJ474" s="2"/>
-      <c r="AK474" s="2"/>
-      <c r="AL474" s="2"/>
-      <c r="AM474" s="2"/>
+      <c r="B474" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G474" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H474" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I474" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J474" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K474" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L474" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M474" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O474" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P474" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q474" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="R474" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T474" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="V474" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="X474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Y474" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Z474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AA474" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AB474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AC474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AD474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AE474" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AF474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AG474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AH474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AI474" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AJ474" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AK474" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AL474" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AM474" s="2" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="475" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
